--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Query/TradeViewerPOCv2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Query/TradeViewerPOCv2.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA55163-44F1-4005-87BA-5429AEED8DBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C093A63-8B1E-4788-B071-342AE7D1BE9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DisplayInfo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -616,7 +624,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">TODAY()-1</f>
-        <v>43214</v>
+        <v>43646</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -725,19 +733,19 @@
       </c>
       <c r="B10" s="2" t="str">
         <f ca="1"/>
-        <v>t0006</v>
+        <v>t0010</v>
       </c>
       <c r="C10" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D10" t="str">
         <f ca="1"/>
-        <v>19/06/2018</v>
+        <v>10/11/2019</v>
       </c>
       <c r="E10" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F10" t="str">
         <f ca="1"/>
@@ -757,7 +765,7 @@
       </c>
       <c r="J10" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K10" t="str">
         <f ca="1"/>
@@ -787,23 +795,23 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B11" s="2" t="str">
         <f ca="1"/>
-        <v>t0012</v>
+        <v>t0011</v>
       </c>
       <c r="C11" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D11" t="str">
         <f ca="1"/>
-        <v>19/07/2018</v>
+        <v>15/11/2019</v>
       </c>
       <c r="E11" t="str">
         <f ca="1"/>
-        <v>19/07/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F11" t="str">
         <f ca="1"/>
@@ -819,11 +827,11 @@
       </c>
       <c r="I11" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J11" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K11" t="str">
         <f ca="1"/>
@@ -853,23 +861,23 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B12" s="2" t="str">
         <f ca="1"/>
-        <v>t0011</v>
+        <v>t0012</v>
       </c>
       <c r="C12" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D12" t="str">
         <f ca="1"/>
-        <v>14/07/2018</v>
+        <v>20/11/2019</v>
       </c>
       <c r="E12" t="str">
         <f ca="1"/>
-        <v>14/07/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F12" t="str">
         <f ca="1"/>
@@ -885,11 +893,11 @@
       </c>
       <c r="I12" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J12" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K12" t="str">
         <f ca="1"/>
@@ -919,23 +927,23 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B13" s="2" t="str">
         <f ca="1"/>
-        <v>t0010</v>
+        <v>t0013</v>
       </c>
       <c r="C13" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D13" t="str">
         <f ca="1"/>
-        <v>9/07/2018</v>
+        <v>25/11/2019</v>
       </c>
       <c r="E13" t="str">
         <f ca="1"/>
-        <v>9/07/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F13" t="str">
         <f ca="1"/>
@@ -951,11 +959,11 @@
       </c>
       <c r="I13" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J13" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K13" t="str">
         <f ca="1"/>
@@ -985,23 +993,23 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B14" s="2" t="str">
         <f ca="1"/>
-        <v>t0009</v>
+        <v>t0014</v>
       </c>
       <c r="C14" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D14" t="str">
         <f ca="1"/>
-        <v>4/07/2018</v>
+        <v>30/11/2019</v>
       </c>
       <c r="E14" t="str">
         <f ca="1"/>
-        <v>4/07/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F14" t="str">
         <f ca="1"/>
@@ -1017,11 +1025,11 @@
       </c>
       <c r="I14" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J14" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K14" t="str">
         <f ca="1"/>
@@ -1051,23 +1059,23 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B15" s="2" t="str">
         <f ca="1"/>
-        <v>eq_test_002</v>
+        <v>t0007</v>
       </c>
       <c r="C15" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D15" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>26/10/2019</v>
       </c>
       <c r="E15" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F15" t="str">
         <f ca="1"/>
@@ -1083,11 +1091,11 @@
       </c>
       <c r="I15" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J15" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K15" t="str">
         <f ca="1"/>
@@ -1117,23 +1125,23 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>FRA</v>
       </c>
       <c r="B16" s="2" t="str">
         <f ca="1"/>
-        <v>eq_test_002</v>
+        <v>CBA0003</v>
       </c>
       <c r="C16" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D16" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>26/12/2019</v>
       </c>
       <c r="E16" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="F16" t="str">
         <f ca="1"/>
@@ -1145,15 +1153,15 @@
       </c>
       <c r="H16" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-QBE.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
       <c r="I16" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J16" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K16" t="str">
         <f ca="1"/>
@@ -1161,11 +1169,11 @@
       </c>
       <c r="L16" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M16" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N16" t="str">
         <f ca="1"/>
@@ -1187,19 +1195,19 @@
       </c>
       <c r="B17" s="2" t="str">
         <f ca="1"/>
-        <v>eq_test_001</v>
+        <v>t0013</v>
       </c>
       <c r="C17" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D17" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>25/11/2019</v>
       </c>
       <c r="E17" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>25/11/2019</v>
       </c>
       <c r="F17" t="str">
         <f ca="1"/>
@@ -1219,7 +1227,7 @@
       </c>
       <c r="J17" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K17" t="str">
         <f ca="1"/>
@@ -1249,23 +1257,23 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B18" s="2" t="str">
         <f ca="1"/>
-        <v>eq_test_001</v>
+        <v>t0014</v>
       </c>
       <c r="C18" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D18" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>30/11/2019</v>
       </c>
       <c r="E18" t="str">
         <f ca="1"/>
-        <v>27/02/2018</v>
+        <v>30/11/2019</v>
       </c>
       <c r="F18" t="str">
         <f ca="1"/>
@@ -1277,15 +1285,15 @@
       </c>
       <c r="H18" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I18" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J18" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K18" t="str">
         <f ca="1"/>
@@ -1293,11 +1301,11 @@
       </c>
       <c r="L18" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M18" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N18" t="str">
         <f ca="1"/>
@@ -1315,23 +1323,23 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B19" s="2" t="str">
         <f ca="1"/>
-        <v>xccynb004</v>
+        <v>t0008</v>
       </c>
       <c r="C19" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D19" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>31/10/2019</v>
       </c>
       <c r="E19" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F19" t="str">
         <f ca="1"/>
@@ -1339,19 +1347,19 @@
       </c>
       <c r="G19" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H19" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I19" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J19" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K19" t="str">
         <f ca="1"/>
@@ -1371,7 +1379,7 @@
       </c>
       <c r="O19" t="str">
         <f ca="1"/>
-        <v>Party1</v>
+        <v>CBA</v>
       </c>
       <c r="P19" t="str">
         <f ca="1"/>
@@ -1381,23 +1389,23 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B20" s="2" t="str">
         <f ca="1"/>
-        <v>xccynb003</v>
+        <v>t0001</v>
       </c>
       <c r="C20" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D20" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>26/09/2019</v>
       </c>
       <c r="E20" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="F20" t="str">
         <f ca="1"/>
@@ -1405,19 +1413,19 @@
       </c>
       <c r="G20" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H20" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I20" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J20" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K20" t="str">
         <f ca="1"/>
@@ -1447,23 +1455,23 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B21" s="2" t="str">
         <f ca="1"/>
-        <v>xccynb002</v>
+        <v>t0002</v>
       </c>
       <c r="C21" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D21" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>1/10/2019</v>
       </c>
       <c r="E21" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>1/10/2019</v>
       </c>
       <c r="F21" t="str">
         <f ca="1"/>
@@ -1471,19 +1479,19 @@
       </c>
       <c r="G21" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H21" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I21" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J21" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K21" t="str">
         <f ca="1"/>
@@ -1491,11 +1499,11 @@
       </c>
       <c r="L21" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="M21">
-        <f ca="1"/>
-        <v>0</v>
+        <v>Test</v>
+      </c>
+      <c r="M21" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N21" t="str">
         <f ca="1"/>
@@ -1513,23 +1521,23 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B22" s="2" t="str">
         <f ca="1"/>
-        <v>xccynb001</v>
+        <v>t0003</v>
       </c>
       <c r="C22" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D22" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>6/10/2019</v>
       </c>
       <c r="E22" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>6/10/2019</v>
       </c>
       <c r="F22" t="str">
         <f ca="1"/>
@@ -1537,19 +1545,19 @@
       </c>
       <c r="G22" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H22" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I22" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J22" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K22" t="str">
         <f ca="1"/>
@@ -1557,11 +1565,11 @@
       </c>
       <c r="L22" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="M22">
-        <f ca="1"/>
-        <v>0</v>
+        <v>Test</v>
+      </c>
+      <c r="M22" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N22" t="str">
         <f ca="1"/>
@@ -1579,23 +1587,23 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B23" s="2" t="str">
         <f ca="1"/>
-        <v>xccy0004</v>
+        <v>t0004</v>
       </c>
       <c r="C23" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D23" t="str">
         <f ca="1"/>
-        <v>25/02/2028</v>
+        <v>11/10/2019</v>
       </c>
       <c r="E23" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>11/10/2019</v>
       </c>
       <c r="F23" t="str">
         <f ca="1"/>
@@ -1603,31 +1611,31 @@
       </c>
       <c r="G23" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H23" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I23" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J23" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K23" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L23">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="L23" t="str">
+        <f ca="1"/>
+        <v>Test</v>
       </c>
       <c r="M23" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N23" t="str">
         <f ca="1"/>
@@ -1645,23 +1653,23 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B24" s="2" t="str">
         <f ca="1"/>
-        <v>xccy0003</v>
+        <v>t0005</v>
       </c>
       <c r="C24" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D24" t="str">
         <f ca="1"/>
-        <v>3/03/2023</v>
+        <v>16/10/2019</v>
       </c>
       <c r="E24" t="str">
         <f ca="1"/>
-        <v>3/03/2018</v>
+        <v>16/10/2019</v>
       </c>
       <c r="F24" t="str">
         <f ca="1"/>
@@ -1669,31 +1677,31 @@
       </c>
       <c r="G24" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H24" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I24" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J24" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K24" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L24">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="L24" t="str">
+        <f ca="1"/>
+        <v>Test</v>
       </c>
       <c r="M24" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N24" t="str">
         <f ca="1"/>
@@ -1711,23 +1719,23 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B25" s="2" t="str">
         <f ca="1"/>
-        <v>xccy0002</v>
+        <v>t0006</v>
       </c>
       <c r="C25" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D25" t="str">
         <f ca="1"/>
-        <v>3/03/2022</v>
+        <v>21/10/2019</v>
       </c>
       <c r="E25" t="str">
         <f ca="1"/>
-        <v>3/03/2018</v>
+        <v>21/10/2019</v>
       </c>
       <c r="F25" t="str">
         <f ca="1"/>
@@ -1735,31 +1743,31 @@
       </c>
       <c r="G25" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H25" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I25" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J25" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K25" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L25">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="L25" t="str">
+        <f ca="1"/>
+        <v>Test</v>
       </c>
       <c r="M25" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N25" t="str">
         <f ca="1"/>
@@ -1777,23 +1785,23 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f ca="1"/>
-        <v>CrossCurrencySwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B26" s="2" t="str">
         <f ca="1"/>
-        <v>xccy0001</v>
+        <v>t0007</v>
       </c>
       <c r="C26" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D26" t="str">
         <f ca="1"/>
-        <v>26/02/2021</v>
+        <v>26/10/2019</v>
       </c>
       <c r="E26" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>26/10/2019</v>
       </c>
       <c r="F26" t="str">
         <f ca="1"/>
@@ -1801,31 +1809,31 @@
       </c>
       <c r="G26" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H26" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I26" t="str">
         <f ca="1"/>
-        <v>InterestRate:CrossCurrency:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J26" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K26" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L26">
-        <f ca="1"/>
-        <v>0</v>
+      <c r="L26" t="str">
+        <f ca="1"/>
+        <v>Test</v>
       </c>
       <c r="M26" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N26" t="str">
         <f ca="1"/>
@@ -1843,23 +1851,23 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B27" s="2" t="str">
         <f ca="1"/>
-        <v>ss001</v>
+        <v>t0008</v>
       </c>
       <c r="C27" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D27" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>31/10/2019</v>
       </c>
       <c r="E27" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>31/10/2019</v>
       </c>
       <c r="F27" t="str">
         <f ca="1"/>
@@ -1871,15 +1879,15 @@
       </c>
       <c r="H27" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I27" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J27" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K27" t="str">
         <f ca="1"/>
@@ -1913,19 +1921,19 @@
       </c>
       <c r="B28" s="2" t="str">
         <f ca="1"/>
-        <v>eq_005</v>
+        <v>t0009</v>
       </c>
       <c r="C28" s="2" t="str">
         <f ca="1"/>
-        <v>12/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D28" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>5/11/2019</v>
       </c>
       <c r="E28" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>5/11/2019</v>
       </c>
       <c r="F28" t="str">
         <f ca="1"/>
@@ -1945,7 +1953,7 @@
       </c>
       <c r="J28" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K28" t="str">
         <f ca="1"/>
@@ -1965,7 +1973,7 @@
       </c>
       <c r="O28" t="str">
         <f ca="1"/>
-        <v>NAB</v>
+        <v>CBA</v>
       </c>
       <c r="P28" t="str">
         <f ca="1"/>
@@ -1975,23 +1983,23 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B29" s="2" t="str">
         <f ca="1"/>
-        <v>eq_005</v>
+        <v>t0010</v>
       </c>
       <c r="C29" s="2" t="str">
         <f ca="1"/>
-        <v>12/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D29" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>10/11/2019</v>
       </c>
       <c r="E29" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>10/11/2019</v>
       </c>
       <c r="F29" t="str">
         <f ca="1"/>
@@ -2003,15 +2011,15 @@
       </c>
       <c r="H29" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I29" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J29" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K29" t="str">
         <f ca="1"/>
@@ -2019,23 +2027,23 @@
       </c>
       <c r="L29" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M29" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N29" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O29" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P29" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O29" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P29" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -2045,19 +2053,19 @@
       </c>
       <c r="B30" s="2" t="str">
         <f ca="1"/>
-        <v>eq_006</v>
+        <v>t0011</v>
       </c>
       <c r="C30" s="2" t="str">
         <f ca="1"/>
-        <v>14/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D30" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>15/11/2019</v>
       </c>
       <c r="E30" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>15/11/2019</v>
       </c>
       <c r="F30" t="str">
         <f ca="1"/>
@@ -2077,7 +2085,7 @@
       </c>
       <c r="J30" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K30" t="str">
         <f ca="1"/>
@@ -2107,23 +2115,23 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B31" s="2" t="str">
         <f ca="1"/>
-        <v>eq_006</v>
+        <v>t0012</v>
       </c>
       <c r="C31" s="2" t="str">
         <f ca="1"/>
-        <v>14/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D31" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>20/11/2019</v>
       </c>
       <c r="E31" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>20/11/2019</v>
       </c>
       <c r="F31" t="str">
         <f ca="1"/>
@@ -2135,15 +2143,15 @@
       </c>
       <c r="H31" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I31" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J31" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K31" t="str">
         <f ca="1"/>
@@ -2151,11 +2159,11 @@
       </c>
       <c r="L31" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M31" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N31" t="str">
         <f ca="1"/>
@@ -2173,23 +2181,23 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B32" s="2" t="str">
         <f ca="1"/>
-        <v>eq_007</v>
+        <v>t0006</v>
       </c>
       <c r="C32" s="2" t="str">
         <f ca="1"/>
-        <v>16/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D32" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>21/10/2019</v>
       </c>
       <c r="E32" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F32" t="str">
         <f ca="1"/>
@@ -2205,11 +2213,11 @@
       </c>
       <c r="I32" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J32" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K32" t="str">
         <f ca="1"/>
@@ -2239,23 +2247,23 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B33" s="2" t="str">
         <f ca="1"/>
-        <v>eq_007</v>
+        <v>t0001</v>
       </c>
       <c r="C33" s="2" t="str">
         <f ca="1"/>
-        <v>16/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D33" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="E33" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F33" t="str">
         <f ca="1"/>
@@ -2267,15 +2275,15 @@
       </c>
       <c r="H33" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I33" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J33" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K33" t="str">
         <f ca="1"/>
@@ -2283,11 +2291,11 @@
       </c>
       <c r="L33" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M33" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N33" t="str">
         <f ca="1"/>
@@ -2305,23 +2313,23 @@
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B34" s="2" t="str">
         <f ca="1"/>
-        <v>eq_008</v>
+        <v>t0002</v>
       </c>
       <c r="C34" s="2" t="str">
         <f ca="1"/>
-        <v>18/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D34" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>1/10/2019</v>
       </c>
       <c r="E34" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F34" t="str">
         <f ca="1"/>
@@ -2337,11 +2345,11 @@
       </c>
       <c r="I34" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J34" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K34" t="str">
         <f ca="1"/>
@@ -2371,23 +2379,23 @@
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B35" s="2" t="str">
         <f ca="1"/>
-        <v>eq_008</v>
+        <v>t0003</v>
       </c>
       <c r="C35" s="2" t="str">
         <f ca="1"/>
-        <v>18/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D35" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>6/10/2019</v>
       </c>
       <c r="E35" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F35" t="str">
         <f ca="1"/>
@@ -2399,15 +2407,15 @@
       </c>
       <c r="H35" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I35" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J35" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K35" t="str">
         <f ca="1"/>
@@ -2415,11 +2423,11 @@
       </c>
       <c r="L35" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M35" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N35" t="str">
         <f ca="1"/>
@@ -2437,23 +2445,23 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B36" s="2" t="str">
         <f ca="1"/>
-        <v>eq_010</v>
+        <v>t0004</v>
       </c>
       <c r="C36" s="2" t="str">
         <f ca="1"/>
-        <v>22/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D36" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>11/10/2019</v>
       </c>
       <c r="E36" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F36" t="str">
         <f ca="1"/>
@@ -2469,11 +2477,11 @@
       </c>
       <c r="I36" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J36" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K36" t="str">
         <f ca="1"/>
@@ -2493,7 +2501,7 @@
       </c>
       <c r="O36" t="str">
         <f ca="1"/>
-        <v>ANZ</v>
+        <v>CBA</v>
       </c>
       <c r="P36" t="str">
         <f ca="1"/>
@@ -2503,23 +2511,23 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B37" s="2" t="str">
         <f ca="1"/>
-        <v>eq_010</v>
+        <v>t0005</v>
       </c>
       <c r="C37" s="2" t="str">
         <f ca="1"/>
-        <v>22/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D37" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>16/10/2019</v>
       </c>
       <c r="E37" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F37" t="str">
         <f ca="1"/>
@@ -2531,15 +2539,15 @@
       </c>
       <c r="H37" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I37" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J37" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K37" t="str">
         <f ca="1"/>
@@ -2547,45 +2555,45 @@
       </c>
       <c r="L37" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M37" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N37" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O37" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P37" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O37" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P37" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FRA</v>
       </c>
       <c r="B38" s="2" t="str">
         <f ca="1"/>
-        <v>eq_003</v>
+        <v>CBA0004</v>
       </c>
       <c r="C38" s="2" t="str">
         <f ca="1"/>
-        <v>8/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D38" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>26/12/2019</v>
       </c>
       <c r="E38" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="F38" t="str">
         <f ca="1"/>
@@ -2597,15 +2605,15 @@
       </c>
       <c r="H38" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
       <c r="I38" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J38" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K38" t="str">
         <f ca="1"/>
@@ -2635,23 +2643,23 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B39" s="2" t="str">
         <f ca="1"/>
-        <v>eq_003</v>
+        <v>bn001</v>
       </c>
       <c r="C39" s="2" t="str">
         <f ca="1"/>
-        <v>8/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D39" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>1/06/2029</v>
       </c>
       <c r="E39" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F39" t="str">
         <f ca="1"/>
@@ -2663,15 +2671,15 @@
       </c>
       <c r="H39" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I39" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J39" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K39" t="str">
         <f ca="1"/>
@@ -2683,7 +2691,7 @@
       </c>
       <c r="M39" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N39" t="str">
         <f ca="1"/>
@@ -2701,23 +2709,23 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B40" s="2" t="str">
         <f ca="1"/>
-        <v>eq_009</v>
+        <v>bn002</v>
       </c>
       <c r="C40" s="2" t="str">
         <f ca="1"/>
-        <v>20/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D40" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E40" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F40" t="str">
         <f ca="1"/>
@@ -2729,15 +2737,15 @@
       </c>
       <c r="H40" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I40" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J40" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K40" t="str">
         <f ca="1"/>
@@ -2745,7 +2753,7 @@
       </c>
       <c r="L40" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="M40" t="str">
         <f ca="1"/>
@@ -2757,7 +2765,7 @@
       </c>
       <c r="O40" t="str">
         <f ca="1"/>
-        <v>ANZ</v>
+        <v>CBA</v>
       </c>
       <c r="P40" t="str">
         <f ca="1"/>
@@ -2767,23 +2775,23 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>TermDeposit</v>
       </c>
       <c r="B41" s="2" t="str">
         <f ca="1"/>
-        <v>eq_009</v>
+        <v>t0009</v>
       </c>
       <c r="C41" s="2" t="str">
         <f ca="1"/>
-        <v>20/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D41" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>5/11/2019</v>
       </c>
       <c r="E41" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F41" t="str">
         <f ca="1"/>
@@ -2795,15 +2803,15 @@
       </c>
       <c r="H41" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I41" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>InterestRate:TermDeposit</v>
       </c>
       <c r="J41" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K41" t="str">
         <f ca="1"/>
@@ -2811,45 +2819,45 @@
       </c>
       <c r="L41" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M41" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N41" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O41" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P41" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O41" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P41" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B42" s="2" t="str">
         <f ca="1"/>
-        <v>eq_004</v>
+        <v>testtrade_002</v>
       </c>
       <c r="C42" s="2" t="str">
         <f ca="1"/>
-        <v>10/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D42" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E42" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F42" t="str">
         <f ca="1"/>
@@ -2861,15 +2869,15 @@
       </c>
       <c r="H42" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I42" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J42" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K42" t="str">
         <f ca="1"/>
@@ -2877,19 +2885,19 @@
       </c>
       <c r="L42" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M42" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M42" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N42" t="str">
         <f ca="1"/>
         <v>Party1</v>
       </c>
       <c r="O42" t="str">
         <f ca="1"/>
-        <v>NAB</v>
+        <v>CBA</v>
       </c>
       <c r="P42" t="str">
         <f ca="1"/>
@@ -2899,23 +2907,23 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B43" s="2" t="str">
         <f ca="1"/>
-        <v>eq_004</v>
+        <v>testtrade_002</v>
       </c>
       <c r="C43" s="2" t="str">
         <f ca="1"/>
-        <v>10/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D43" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E43" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F43" t="str">
         <f ca="1"/>
@@ -2927,15 +2935,15 @@
       </c>
       <c r="H43" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I43" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J43" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K43" t="str">
         <f ca="1"/>
@@ -2943,45 +2951,45 @@
       </c>
       <c r="L43" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M43" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N43" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O43" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P43" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O43" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P43" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B44" s="2" t="str">
         <f ca="1"/>
-        <v>eq_002</v>
+        <v>001</v>
       </c>
       <c r="C44" s="2" t="str">
         <f ca="1"/>
-        <v>6/02/2018</v>
+        <v>6/06/2019</v>
       </c>
       <c r="D44" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>9/06/2019</v>
       </c>
       <c r="E44" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>9/06/2019</v>
       </c>
       <c r="F44" t="str">
         <f ca="1"/>
@@ -2993,15 +3001,15 @@
       </c>
       <c r="H44" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I44" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J44" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K44" t="str">
         <f ca="1"/>
@@ -3009,11 +3017,11 @@
       </c>
       <c r="L44" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M44" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M44" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N44" t="str">
         <f ca="1"/>
@@ -3031,23 +3039,23 @@
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B45" s="2" t="str">
         <f ca="1"/>
-        <v>eq_002</v>
+        <v>001</v>
       </c>
       <c r="C45" s="2" t="str">
         <f ca="1"/>
-        <v>6/02/2018</v>
+        <v>6/06/2019</v>
       </c>
       <c r="D45" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>9/06/2019</v>
       </c>
       <c r="E45" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>9/06/2019</v>
       </c>
       <c r="F45" t="str">
         <f ca="1"/>
@@ -3059,15 +3067,15 @@
       </c>
       <c r="H45" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I45" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J45" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K45" t="str">
         <f ca="1"/>
@@ -3075,11 +3083,11 @@
       </c>
       <c r="L45" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M45" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N45" t="str">
         <f ca="1"/>
@@ -3097,23 +3105,23 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B46" s="2" t="str">
         <f ca="1"/>
-        <v>eq_001</v>
+        <v>002</v>
       </c>
       <c r="C46" s="2" t="str">
         <f ca="1"/>
-        <v>4/02/2018</v>
+        <v>8/06/2019</v>
       </c>
       <c r="D46" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="E46" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="F46" t="str">
         <f ca="1"/>
@@ -3125,15 +3133,15 @@
       </c>
       <c r="H46" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I46" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J46" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K46" t="str">
         <f ca="1"/>
@@ -3141,11 +3149,11 @@
       </c>
       <c r="L46" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M46" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M46" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N46" t="str">
         <f ca="1"/>
@@ -3163,23 +3171,23 @@
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f ca="1"/>
-        <v>EquityTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B47" s="2" t="str">
         <f ca="1"/>
-        <v>eq_001</v>
+        <v>002</v>
       </c>
       <c r="C47" s="2" t="str">
         <f ca="1"/>
-        <v>4/02/2018</v>
+        <v>8/06/2019</v>
       </c>
       <c r="D47" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="E47" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="F47" t="str">
         <f ca="1"/>
@@ -3191,15 +3199,15 @@
       </c>
       <c r="H47" t="str">
         <f ca="1"/>
-        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I47" t="str">
         <f ca="1"/>
-        <v>Equity:OrdinaryShares</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J47" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K47" t="str">
         <f ca="1"/>
@@ -3207,11 +3215,11 @@
       </c>
       <c r="L47" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M47" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N47" t="str">
         <f ca="1"/>
@@ -3229,23 +3237,23 @@
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f ca="1"/>
-        <v>FxForward</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B48" s="2" t="str">
         <f ca="1"/>
-        <v>t0015</v>
+        <v>003</v>
       </c>
       <c r="C48" s="2" t="str">
         <f ca="1"/>
-        <v>8/08/2011</v>
+        <v>10/06/2019</v>
       </c>
       <c r="D48" t="str">
         <f ca="1"/>
-        <v>31/12/2011</v>
+        <v>13/06/2019</v>
       </c>
       <c r="E48" t="str">
         <f ca="1"/>
-        <v>31/12/2011</v>
+        <v>13/06/2019</v>
       </c>
       <c r="F48" t="str">
         <f ca="1"/>
@@ -3253,19 +3261,19 @@
       </c>
       <c r="G48" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H48" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I48" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Forward</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J48" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K48" t="str">
         <f ca="1"/>
@@ -3273,11 +3281,11 @@
       </c>
       <c r="L48" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M48" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M48" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N48" t="str">
         <f ca="1"/>
@@ -3295,23 +3303,23 @@
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f ca="1"/>
-        <v>FxForward</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B49" s="2" t="str">
         <f ca="1"/>
-        <v>t0014</v>
+        <v>003</v>
       </c>
       <c r="C49" s="2" t="str">
         <f ca="1"/>
-        <v>8/08/2011</v>
+        <v>10/06/2019</v>
       </c>
       <c r="D49" t="str">
         <f ca="1"/>
-        <v>26/12/2011</v>
+        <v>13/06/2019</v>
       </c>
       <c r="E49" t="str">
         <f ca="1"/>
-        <v>26/12/2011</v>
+        <v>13/06/2019</v>
       </c>
       <c r="F49" t="str">
         <f ca="1"/>
@@ -3319,19 +3327,19 @@
       </c>
       <c r="G49" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H49" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I49" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Forward</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J49" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K49" t="str">
         <f ca="1"/>
@@ -3361,23 +3369,23 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f ca="1"/>
-        <v>FxForward</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B50" s="2" t="str">
         <f ca="1"/>
-        <v>t0013</v>
+        <v>testtrade_001</v>
       </c>
       <c r="C50" s="2" t="str">
         <f ca="1"/>
-        <v>8/08/2011</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D50" t="str">
         <f ca="1"/>
-        <v>21/12/2011</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E50" t="str">
         <f ca="1"/>
-        <v>21/12/2011</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F50" t="str">
         <f ca="1"/>
@@ -3385,19 +3393,19 @@
       </c>
       <c r="G50" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H50" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I50" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Forward</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J50" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K50" t="str">
         <f ca="1"/>
@@ -3405,11 +3413,11 @@
       </c>
       <c r="L50" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M50" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M50" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N50" t="str">
         <f ca="1"/>
@@ -3427,23 +3435,23 @@
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f ca="1"/>
-        <v>FxSwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B51" s="2" t="str">
         <f ca="1"/>
-        <v>t0019</v>
+        <v>testtrade_001</v>
       </c>
       <c r="C51" s="2" t="str">
         <f ca="1"/>
-        <v>8/08/2011</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D51" t="str">
         <f ca="1"/>
-        <v>16/09/2012</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E51" t="str">
         <f ca="1"/>
-        <v>21/12/2011</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F51" t="str">
         <f ca="1"/>
@@ -3451,19 +3459,19 @@
       </c>
       <c r="G51" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H51" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I51" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Swap</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J51" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K51" t="str">
         <f ca="1"/>
@@ -3493,23 +3501,23 @@
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f ca="1"/>
-        <v>FxSwap</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B52" s="2" t="str">
         <f ca="1"/>
-        <v>t0018</v>
+        <v>004</v>
       </c>
       <c r="C52" s="2" t="str">
         <f ca="1"/>
-        <v>8/08/2011</v>
+        <v>12/06/2019</v>
       </c>
       <c r="D52" t="str">
         <f ca="1"/>
-        <v>18/06/2012</v>
+        <v>15/06/2019</v>
       </c>
       <c r="E52" t="str">
         <f ca="1"/>
-        <v>21/12/2011</v>
+        <v>15/06/2019</v>
       </c>
       <c r="F52" t="str">
         <f ca="1"/>
@@ -3517,19 +3525,19 @@
       </c>
       <c r="G52" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H52" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I52" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Swap</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J52" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K52" t="str">
         <f ca="1"/>
@@ -3537,45 +3545,45 @@
       </c>
       <c r="L52" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M52" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M52" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N52" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O52" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P52" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O52" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P52" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f ca="1"/>
-        <v>FxSwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B53" s="2" t="str">
         <f ca="1"/>
-        <v>t0017</v>
+        <v>004</v>
       </c>
       <c r="C53" s="2" t="str">
         <f ca="1"/>
-        <v>8/08/2011</v>
+        <v>12/06/2019</v>
       </c>
       <c r="D53" t="str">
         <f ca="1"/>
-        <v>20/03/2012</v>
+        <v>15/06/2019</v>
       </c>
       <c r="E53" t="str">
         <f ca="1"/>
-        <v>21/12/2011</v>
+        <v>15/06/2019</v>
       </c>
       <c r="F53" t="str">
         <f ca="1"/>
@@ -3583,19 +3591,19 @@
       </c>
       <c r="G53" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H53" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I53" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Swap</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J53" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K53" t="str">
         <f ca="1"/>
@@ -3615,7 +3623,7 @@
       </c>
       <c r="O53" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>NAB</v>
       </c>
       <c r="P53" t="str">
         <f ca="1"/>
@@ -3625,23 +3633,23 @@
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B54" s="2" t="str">
         <f ca="1"/>
-        <v>t0012</v>
+        <v>005</v>
       </c>
       <c r="C54" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>14/06/2019</v>
       </c>
       <c r="D54" t="str">
         <f ca="1"/>
-        <v>19/07/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="E54" t="str">
         <f ca="1"/>
-        <v>19/07/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="F54" t="str">
         <f ca="1"/>
@@ -3649,19 +3657,19 @@
       </c>
       <c r="G54" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H54" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I54" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J54" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K54" t="str">
         <f ca="1"/>
@@ -3669,45 +3677,45 @@
       </c>
       <c r="L54" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M54" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M54" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N54" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O54" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P54" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O54" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P54" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B55" s="2" t="str">
         <f ca="1"/>
-        <v>t0011</v>
+        <v>005</v>
       </c>
       <c r="C55" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>14/06/2019</v>
       </c>
       <c r="D55" t="str">
         <f ca="1"/>
-        <v>14/07/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="E55" t="str">
         <f ca="1"/>
-        <v>14/07/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="F55" t="str">
         <f ca="1"/>
@@ -3715,19 +3723,19 @@
       </c>
       <c r="G55" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H55" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I55" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J55" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K55" t="str">
         <f ca="1"/>
@@ -3747,7 +3755,7 @@
       </c>
       <c r="O55" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>NAB</v>
       </c>
       <c r="P55" t="str">
         <f ca="1"/>
@@ -3757,23 +3765,23 @@
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B56" s="2" t="str">
         <f ca="1"/>
-        <v>t0010</v>
+        <v>006</v>
       </c>
       <c r="C56" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>16/06/2019</v>
       </c>
       <c r="D56" t="str">
         <f ca="1"/>
-        <v>9/07/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="E56" t="str">
         <f ca="1"/>
-        <v>9/07/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="F56" t="str">
         <f ca="1"/>
@@ -3781,19 +3789,19 @@
       </c>
       <c r="G56" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H56" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I56" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J56" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K56" t="str">
         <f ca="1"/>
@@ -3801,11 +3809,11 @@
       </c>
       <c r="L56" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M56" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M56" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N56" t="str">
         <f ca="1"/>
@@ -3823,23 +3831,23 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B57" s="2" t="str">
         <f ca="1"/>
-        <v>t0009</v>
+        <v>006</v>
       </c>
       <c r="C57" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>16/06/2019</v>
       </c>
       <c r="D57" t="str">
         <f ca="1"/>
-        <v>4/07/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="E57" t="str">
         <f ca="1"/>
-        <v>4/07/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="F57" t="str">
         <f ca="1"/>
@@ -3847,19 +3855,19 @@
       </c>
       <c r="G57" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H57" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I57" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J57" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K57" t="str">
         <f ca="1"/>
@@ -3889,23 +3897,23 @@
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B58" s="2" t="str">
         <f ca="1"/>
-        <v>t0008</v>
+        <v>007</v>
       </c>
       <c r="C58" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>18/06/2019</v>
       </c>
       <c r="D58" t="str">
         <f ca="1"/>
-        <v>29/06/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="E58" t="str">
         <f ca="1"/>
-        <v>29/06/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="F58" t="str">
         <f ca="1"/>
@@ -3913,19 +3921,19 @@
       </c>
       <c r="G58" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H58" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I58" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J58" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K58" t="str">
         <f ca="1"/>
@@ -3933,11 +3941,11 @@
       </c>
       <c r="L58" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M58" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M58" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N58" t="str">
         <f ca="1"/>
@@ -3955,23 +3963,23 @@
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B59" s="2" t="str">
         <f ca="1"/>
-        <v>t0007</v>
+        <v>007</v>
       </c>
       <c r="C59" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>18/06/2019</v>
       </c>
       <c r="D59" t="str">
         <f ca="1"/>
-        <v>24/06/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="E59" t="str">
         <f ca="1"/>
-        <v>24/06/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="F59" t="str">
         <f ca="1"/>
@@ -3979,19 +3987,19 @@
       </c>
       <c r="G59" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H59" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I59" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J59" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K59" t="str">
         <f ca="1"/>
@@ -4021,23 +4029,23 @@
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f ca="1"/>
-        <v>CapFloor</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B60" s="2" t="str">
         <f ca="1"/>
-        <v>nb002</v>
+        <v>008</v>
       </c>
       <c r="C60" s="2" t="str">
         <f ca="1"/>
-        <v>8/11/2008</v>
+        <v>20/06/2019</v>
       </c>
       <c r="D60" t="str">
         <f ca="1"/>
-        <v>10/10/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="E60" t="str">
         <f ca="1"/>
-        <v>10/11/2008</v>
+        <v>23/06/2019</v>
       </c>
       <c r="F60" t="str">
         <f ca="1"/>
@@ -4049,15 +4057,15 @@
       </c>
       <c r="H60" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I60" t="str">
         <f ca="1"/>
-        <v>InterestRate:CapFloor</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J60" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K60" t="str">
         <f ca="1"/>
@@ -4065,11 +4073,11 @@
       </c>
       <c r="L60" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M60" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M60" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N60" t="str">
         <f ca="1"/>
@@ -4087,23 +4095,23 @@
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B61" s="2" t="str">
         <f ca="1"/>
-        <v>t0001</v>
+        <v>008</v>
       </c>
       <c r="C61" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>20/06/2019</v>
       </c>
       <c r="D61" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="E61" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="F61" t="str">
         <f ca="1"/>
@@ -4111,19 +4119,19 @@
       </c>
       <c r="G61" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H61" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I61" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J61" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K61" t="str">
         <f ca="1"/>
@@ -4153,23 +4161,23 @@
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B62" s="2" t="str">
         <f ca="1"/>
-        <v>t0013</v>
+        <v>009</v>
       </c>
       <c r="C62" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>22/06/2019</v>
       </c>
       <c r="D62" t="str">
         <f ca="1"/>
-        <v>24/09/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="E62" t="str">
         <f ca="1"/>
-        <v>24/08/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="F62" t="str">
         <f ca="1"/>
@@ -4181,15 +4189,15 @@
       </c>
       <c r="H62" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I62" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J62" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K62" t="str">
         <f ca="1"/>
@@ -4197,11 +4205,11 @@
       </c>
       <c r="L62" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M62" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M62" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N62" t="str">
         <f ca="1"/>
@@ -4219,23 +4227,23 @@
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B63" s="2" t="str">
         <f ca="1"/>
-        <v>t0005</v>
+        <v>009</v>
       </c>
       <c r="C63" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>22/06/2019</v>
       </c>
       <c r="D63" t="str">
         <f ca="1"/>
-        <v>24/01/2019</v>
+        <v>25/06/2019</v>
       </c>
       <c r="E63" t="str">
         <f ca="1"/>
-        <v>24/07/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="F63" t="str">
         <f ca="1"/>
@@ -4247,15 +4255,15 @@
       </c>
       <c r="H63" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I63" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J63" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K63" t="str">
         <f ca="1"/>
@@ -4275,7 +4283,7 @@
       </c>
       <c r="O63" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>ANZ</v>
       </c>
       <c r="P63" t="str">
         <f ca="1"/>
@@ -4285,23 +4293,23 @@
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BondTransaction</v>
       </c>
       <c r="B64" s="2" t="str">
         <f ca="1"/>
-        <v>t0001</v>
+        <v>010</v>
       </c>
       <c r="C64" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>24/06/2019</v>
       </c>
       <c r="D64" t="str">
         <f ca="1"/>
-        <v>25/06/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="E64" t="str">
         <f ca="1"/>
-        <v>26/03/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="F64" t="str">
         <f ca="1"/>
@@ -4313,15 +4321,15 @@
       </c>
       <c r="H64" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I64" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
       </c>
       <c r="J64" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K64" t="str">
         <f ca="1"/>
@@ -4329,49 +4337,49 @@
       </c>
       <c r="L64" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M64" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M64" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N64" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O64" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P64" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O64" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P64" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f ca="1"/>
-        <v>FutureTransaction</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B65" s="2" t="str">
         <f ca="1"/>
-        <v>testtrade_001</v>
+        <v>010</v>
       </c>
       <c r="C65" s="2" t="str">
         <f ca="1"/>
-        <v>25/03/2018</v>
+        <v>24/06/2019</v>
       </c>
       <c r="D65" t="str">
         <f ca="1"/>
-        <v>8/06/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="E65" t="str">
         <f ca="1"/>
-        <v>25/03/2018</v>
-      </c>
-      <c r="F65">
-        <f ca="1"/>
-        <v>0</v>
+        <v>27/06/2019</v>
+      </c>
+      <c r="F65" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="G65" t="str">
         <f ca="1"/>
@@ -4379,27 +4387,27 @@
       </c>
       <c r="H65" t="str">
         <f ca="1"/>
-        <v>ExchangeTradedCurve.AUD-ASXT-IR;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I65" t="str">
         <f ca="1"/>
-        <v>ExchangeTraded:Future</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J65" t="str">
         <f ca="1"/>
-        <v>25/03/2018</v>
-      </c>
-      <c r="K65">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <f ca="1"/>
-        <v>0</v>
+        <v>26/06/2019</v>
+      </c>
+      <c r="K65" t="str">
+        <f ca="1"/>
+        <v>SpreadSheet</v>
+      </c>
+      <c r="L65" t="str">
+        <f ca="1"/>
+        <v>Test</v>
+      </c>
+      <c r="M65" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N65" t="str">
         <f ca="1"/>
@@ -4407,7 +4415,7 @@
       </c>
       <c r="O65" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>ANZ</v>
       </c>
       <c r="P65" t="str">
         <f ca="1"/>
@@ -4417,23 +4425,23 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FxOption</v>
       </c>
       <c r="B66" s="2" t="str">
         <f ca="1"/>
-        <v>t0001</v>
+        <v>fxo0001</v>
       </c>
       <c r="C66" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D66" t="str">
         <f ca="1"/>
-        <v>25/02/2021</v>
+        <v>6/01/2020</v>
       </c>
       <c r="E66" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>2/01/2020</v>
       </c>
       <c r="F66" t="str">
         <f ca="1"/>
@@ -4441,19 +4449,19 @@
       </c>
       <c r="G66" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H66" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;FxVolatilityMatrix.AUDUSD-FxSpot</v>
       </c>
       <c r="I66" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>ForeignExchange:VanillaOption</v>
       </c>
       <c r="J66" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K66" t="str">
         <f ca="1"/>
@@ -4483,23 +4491,23 @@
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B67" s="2" t="str">
         <f ca="1"/>
-        <v>t0003</v>
+        <v>t000x</v>
       </c>
       <c r="C67" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D67" t="str">
         <f ca="1"/>
-        <v>27/02/2023</v>
+        <v>24/09/2019</v>
       </c>
       <c r="E67" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>24/09/2019</v>
       </c>
       <c r="F67" t="str">
         <f ca="1"/>
@@ -4511,15 +4519,15 @@
       </c>
       <c r="H67" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I67" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J67" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="K67" t="str">
         <f ca="1"/>
@@ -4549,23 +4557,23 @@
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>CapFloor</v>
       </c>
       <c r="B68" s="2" t="str">
         <f ca="1"/>
-        <v>t0002</v>
+        <v>nb001</v>
       </c>
       <c r="C68" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D68" t="str">
         <f ca="1"/>
-        <v>23/10/2015</v>
+        <v>9/08/2021</v>
       </c>
       <c r="E68" t="str">
         <f ca="1"/>
-        <v>23/10/2011</v>
+        <v>9/09/2011</v>
       </c>
       <c r="F68" t="str">
         <f ca="1"/>
@@ -4577,15 +4585,15 @@
       </c>
       <c r="H68" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I68" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>InterestRate:CapFloor</v>
       </c>
       <c r="J68" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K68" t="str">
         <f ca="1"/>
@@ -4615,23 +4623,23 @@
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FRA</v>
       </c>
       <c r="B69" s="2" t="str">
         <f ca="1"/>
-        <v>t0004</v>
+        <v>t0012</v>
       </c>
       <c r="C69" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D69" t="str">
         <f ca="1"/>
-        <v>25/02/2028</v>
+        <v>28/05/2020</v>
       </c>
       <c r="E69" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>28/11/2019</v>
       </c>
       <c r="F69" t="str">
         <f ca="1"/>
@@ -4647,11 +4655,11 @@
       </c>
       <c r="I69" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J69" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K69" t="str">
         <f ca="1"/>
@@ -4667,37 +4675,37 @@
       </c>
       <c r="N69" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O69" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P69" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O69" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P69" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FRA</v>
       </c>
       <c r="B70" s="2" t="str">
         <f ca="1"/>
-        <v>nb003</v>
+        <v>t0004</v>
       </c>
       <c r="C70" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D70" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>28/01/2020</v>
       </c>
       <c r="E70" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>28/10/2019</v>
       </c>
       <c r="F70" t="str">
         <f ca="1"/>
@@ -4709,15 +4717,15 @@
       </c>
       <c r="H70" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I70" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J70" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K70" t="str">
         <f ca="1"/>
@@ -4747,23 +4755,23 @@
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FRA</v>
       </c>
       <c r="B71" s="2" t="str">
         <f ca="1"/>
-        <v>nb002</v>
+        <v>t0002</v>
       </c>
       <c r="C71" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D71" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>28/02/2020</v>
       </c>
       <c r="E71" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>28/08/2019</v>
       </c>
       <c r="F71" t="str">
         <f ca="1"/>
@@ -4779,11 +4787,11 @@
       </c>
       <c r="I71" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J71" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K71" t="str">
         <f ca="1"/>
@@ -4791,11 +4799,11 @@
       </c>
       <c r="L71" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="M71">
-        <f ca="1"/>
-        <v>0</v>
+        <v>Test</v>
+      </c>
+      <c r="M71" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N71" t="str">
         <f ca="1"/>
@@ -4813,23 +4821,23 @@
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FRA</v>
       </c>
       <c r="B72" s="2" t="str">
         <f ca="1"/>
-        <v>nb001</v>
+        <v>t0007</v>
       </c>
       <c r="C72" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D72" t="str">
         <f ca="1"/>
-        <v>27/01/2028</v>
+        <v>28/04/2020</v>
       </c>
       <c r="E72" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>28/01/2020</v>
       </c>
       <c r="F72" t="str">
         <f ca="1"/>
@@ -4841,15 +4849,15 @@
       </c>
       <c r="H72" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I72" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J72" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K72" t="str">
         <f ca="1"/>
@@ -4857,11 +4865,11 @@
       </c>
       <c r="L72" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="M72">
-        <f ca="1"/>
-        <v>0</v>
+        <v>Test</v>
+      </c>
+      <c r="M72" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N72" t="str">
         <f ca="1"/>
@@ -4879,23 +4887,23 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f ca="1"/>
-        <v>InterestRateSwaption</v>
+        <v>FRA</v>
       </c>
       <c r="B73" s="2" t="str">
         <f ca="1"/>
-        <v>nb002</v>
+        <v>t0006</v>
       </c>
       <c r="C73" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D73" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>28/01/2020</v>
       </c>
       <c r="E73" t="str">
         <f ca="1"/>
-        <v>27/02/2023</v>
+        <v>30/12/2019</v>
       </c>
       <c r="F73" t="str">
         <f ca="1"/>
@@ -4907,15 +4915,15 @@
       </c>
       <c r="H73" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="I73" t="str">
         <f ca="1"/>
-        <v>InterestRate:Option:Swaption</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J73" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K73" t="str">
         <f ca="1"/>
@@ -4923,11 +4931,11 @@
       </c>
       <c r="L73" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="M73">
-        <f ca="1"/>
-        <v>0</v>
+        <v>Test</v>
+      </c>
+      <c r="M73" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N73" t="str">
         <f ca="1"/>
@@ -4945,23 +4953,23 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f ca="1"/>
-        <v>FutureTransaction</v>
+        <v>FRA</v>
       </c>
       <c r="B74" s="2" t="str">
         <f ca="1"/>
-        <v>testtrade_002</v>
+        <v>t0011</v>
       </c>
       <c r="C74" s="2" t="str">
         <f ca="1"/>
-        <v>25/03/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D74" t="str">
         <f ca="1"/>
-        <v>8/06/2018</v>
+        <v>28/01/2020</v>
       </c>
       <c r="E74" t="str">
         <f ca="1"/>
-        <v>25/03/2018</v>
+        <v>28/10/2019</v>
       </c>
       <c r="F74" t="str">
         <f ca="1"/>
@@ -4973,15 +4981,15 @@
       </c>
       <c r="H74" t="str">
         <f ca="1"/>
-        <v>ExchangeTradedCurve.AUD-ASXT-IR;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I74" t="str">
         <f ca="1"/>
-        <v>ExchangeTraded:Future</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J74" t="str">
         <f ca="1"/>
-        <v>25/03/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K74" t="str">
         <f ca="1"/>
@@ -4989,45 +4997,45 @@
       </c>
       <c r="L74" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M74" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N74" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O74" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P74" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O74" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P74" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f ca="1"/>
-        <v>FxOption</v>
+        <v>FRA</v>
       </c>
       <c r="B75" s="2" t="str">
         <f ca="1"/>
-        <v>fxo0002</v>
+        <v>t0003</v>
       </c>
       <c r="C75" s="2" t="str">
         <f ca="1"/>
-        <v>22/01/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D75" t="str">
         <f ca="1"/>
-        <v>26/07/2018</v>
+        <v>28/10/2019</v>
       </c>
       <c r="E75" t="str">
         <f ca="1"/>
-        <v>24/07/2018</v>
+        <v>30/09/2019</v>
       </c>
       <c r="F75" t="str">
         <f ca="1"/>
@@ -5035,19 +5043,19 @@
       </c>
       <c r="G75" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H75" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;FxVolatilityMatrix.AUDUSD-FxSpot</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="I75" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:VanillaOption</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J75" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K75" t="str">
         <f ca="1"/>
@@ -5077,23 +5085,23 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f ca="1"/>
-        <v>FxOption</v>
+        <v>FRA</v>
       </c>
       <c r="B76" s="2" t="str">
         <f ca="1"/>
-        <v>fxo0001</v>
+        <v>t0010</v>
       </c>
       <c r="C76" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D76" t="str">
         <f ca="1"/>
-        <v>29/08/2018</v>
+        <v>28/10/2019</v>
       </c>
       <c r="E76" t="str">
         <f ca="1"/>
-        <v>27/08/2018</v>
+        <v>30/09/2019</v>
       </c>
       <c r="F76" t="str">
         <f ca="1"/>
@@ -5101,19 +5109,19 @@
       </c>
       <c r="G76" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H76" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;FxVolatilityMatrix.AUDUSD-FxSpot</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="I76" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:VanillaOption</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J76" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K76" t="str">
         <f ca="1"/>
@@ -5129,37 +5137,37 @@
       </c>
       <c r="N76" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O76" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P76" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O76" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P76" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>FRA</v>
       </c>
       <c r="B77" s="2" t="str">
         <f ca="1"/>
-        <v>t0006</v>
+        <v>t0009</v>
       </c>
       <c r="C77" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D77" t="str">
         <f ca="1"/>
-        <v>19/06/2018</v>
+        <v>28/02/2020</v>
       </c>
       <c r="E77" t="str">
         <f ca="1"/>
-        <v>19/06/2018</v>
+        <v>28/08/2019</v>
       </c>
       <c r="F77" t="str">
         <f ca="1"/>
@@ -5167,19 +5175,19 @@
       </c>
       <c r="G77" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H77" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I77" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J77" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K77" t="str">
         <f ca="1"/>
@@ -5195,37 +5203,37 @@
       </c>
       <c r="N77" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O77" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P77" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O77" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P77" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>FRA</v>
       </c>
       <c r="B78" s="2" t="str">
         <f ca="1"/>
-        <v>t0005</v>
+        <v>t0008</v>
       </c>
       <c r="C78" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D78" t="str">
         <f ca="1"/>
-        <v>14/06/2018</v>
+        <v>28/10/2019</v>
       </c>
       <c r="E78" t="str">
         <f ca="1"/>
-        <v>14/06/2018</v>
+        <v>29/07/2019</v>
       </c>
       <c r="F78" t="str">
         <f ca="1"/>
@@ -5233,19 +5241,19 @@
       </c>
       <c r="G78" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H78" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I78" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J78" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K78" t="str">
         <f ca="1"/>
@@ -5261,37 +5269,37 @@
       </c>
       <c r="N78" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O78" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P78" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O78" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P78" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>FRA</v>
       </c>
       <c r="B79" s="2" t="str">
         <f ca="1"/>
-        <v>t0004</v>
+        <v>t0014</v>
       </c>
       <c r="C79" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D79" t="str">
         <f ca="1"/>
-        <v>9/06/2018</v>
+        <v>28/04/2020</v>
       </c>
       <c r="E79" t="str">
         <f ca="1"/>
-        <v>9/06/2018</v>
+        <v>28/01/2020</v>
       </c>
       <c r="F79" t="str">
         <f ca="1"/>
@@ -5299,19 +5307,19 @@
       </c>
       <c r="G79" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H79" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I79" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J79" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K79" t="str">
         <f ca="1"/>
@@ -5327,37 +5335,37 @@
       </c>
       <c r="N79" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O79" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P79" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O79" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P79" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>FRA</v>
       </c>
       <c r="B80" s="2" t="str">
         <f ca="1"/>
-        <v>t0003</v>
+        <v>CBA0001</v>
       </c>
       <c r="C80" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D80" t="str">
         <f ca="1"/>
-        <v>4/06/2018</v>
+        <v>26/12/2019</v>
       </c>
       <c r="E80" t="str">
         <f ca="1"/>
-        <v>4/06/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="F80" t="str">
         <f ca="1"/>
@@ -5365,19 +5373,19 @@
       </c>
       <c r="G80" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H80" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I80" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J80" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K80" t="str">
         <f ca="1"/>
@@ -5407,23 +5415,23 @@
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FRA</v>
       </c>
       <c r="B81" s="2" t="str">
         <f ca="1"/>
-        <v>nb004</v>
+        <v>CBA0002</v>
       </c>
       <c r="C81" s="2" t="str">
         <f ca="1"/>
-        <v>10/11/2008</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D81" t="str">
         <f ca="1"/>
-        <v>12/11/2018</v>
+        <v>26/12/2019</v>
       </c>
       <c r="E81" t="str">
         <f ca="1"/>
-        <v>11/11/2008</v>
+        <v>26/09/2019</v>
       </c>
       <c r="F81" t="str">
         <f ca="1"/>
@@ -5435,15 +5443,15 @@
       </c>
       <c r="H81" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I81" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J81" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K81" t="str">
         <f ca="1"/>
@@ -5463,7 +5471,7 @@
       </c>
       <c r="O81" t="str">
         <f ca="1"/>
-        <v>Party1</v>
+        <v>CBA</v>
       </c>
       <c r="P81" t="str">
         <f ca="1"/>
@@ -5473,23 +5481,23 @@
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FxSpot</v>
       </c>
       <c r="B82" s="2" t="str">
         <f ca="1"/>
-        <v>aw001</v>
+        <v>t0002</v>
       </c>
       <c r="C82" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D82" t="str">
         <f ca="1"/>
-        <v>4/02/2015</v>
+        <v>1/10/2019</v>
       </c>
       <c r="E82" t="str">
         <f ca="1"/>
-        <v>4/02/2010</v>
+        <v>1/10/2019</v>
       </c>
       <c r="F82" t="str">
         <f ca="1"/>
@@ -5497,19 +5505,19 @@
       </c>
       <c r="G82" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H82" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M-6M</v>
-      </c>
-      <c r="I82">
-        <f ca="1"/>
-        <v>0</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+      </c>
+      <c r="I82" t="str">
+        <f ca="1"/>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J82" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K82" t="str">
         <f ca="1"/>
@@ -5517,11 +5525,11 @@
       </c>
       <c r="L82" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="M82">
-        <f ca="1"/>
-        <v>0</v>
+        <v>Test</v>
+      </c>
+      <c r="M82" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
       </c>
       <c r="N82" t="str">
         <f ca="1"/>
@@ -5547,15 +5555,15 @@
       </c>
       <c r="C83" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D83" t="str">
         <f ca="1"/>
-        <v>28/02/2033</v>
+        <v>3/07/2034</v>
       </c>
       <c r="E83" t="str">
         <f ca="1"/>
-        <v>27/02/2023</v>
+        <v>1/07/2024</v>
       </c>
       <c r="F83" t="str">
         <f ca="1"/>
@@ -5575,7 +5583,7 @@
       </c>
       <c r="J83" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K83" t="str">
         <f ca="1"/>
@@ -5605,23 +5613,23 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f ca="1"/>
-        <v>FxSpot</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B84" s="2" t="str">
         <f ca="1"/>
-        <v>t0002</v>
+        <v>nb004</v>
       </c>
       <c r="C84" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>10/11/2008</v>
       </c>
       <c r="D84" t="str">
         <f ca="1"/>
-        <v>30/05/2018</v>
+        <v>12/11/2018</v>
       </c>
       <c r="E84" t="str">
         <f ca="1"/>
-        <v>30/05/2018</v>
+        <v>11/11/2008</v>
       </c>
       <c r="F84" t="str">
         <f ca="1"/>
@@ -5629,19 +5637,19 @@
       </c>
       <c r="G84" t="str">
         <f ca="1"/>
-        <v>AUD;USD</v>
+        <v>AUD</v>
       </c>
       <c r="H84" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I84" t="str">
         <f ca="1"/>
-        <v>ForeignExchange:Spot</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J84" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K84" t="str">
         <f ca="1"/>
@@ -5661,7 +5669,7 @@
       </c>
       <c r="O84" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>Party1</v>
       </c>
       <c r="P84" t="str">
         <f ca="1"/>
@@ -5671,23 +5679,23 @@
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>FxSpot</v>
       </c>
       <c r="B85" s="2" t="str">
         <f ca="1"/>
-        <v>CBA0002</v>
+        <v>t0003</v>
       </c>
       <c r="C85" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D85" t="str">
         <f ca="1"/>
-        <v>24/08/2018</v>
+        <v>6/10/2019</v>
       </c>
       <c r="E85" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>6/10/2019</v>
       </c>
       <c r="F85" t="str">
         <f ca="1"/>
@@ -5695,19 +5703,19 @@
       </c>
       <c r="G85" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H85" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I85" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J85" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K85" t="str">
         <f ca="1"/>
@@ -5737,23 +5745,23 @@
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>FxSpot</v>
       </c>
       <c r="B86" s="2" t="str">
         <f ca="1"/>
-        <v>CBA0001</v>
+        <v>t0004</v>
       </c>
       <c r="C86" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D86" t="str">
         <f ca="1"/>
-        <v>24/08/2018</v>
+        <v>11/10/2019</v>
       </c>
       <c r="E86" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>11/10/2019</v>
       </c>
       <c r="F86" t="str">
         <f ca="1"/>
@@ -5761,19 +5769,19 @@
       </c>
       <c r="G86" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H86" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I86" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J86" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K86" t="str">
         <f ca="1"/>
@@ -5803,23 +5811,23 @@
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>FxSpot</v>
       </c>
       <c r="B87" s="2" t="str">
         <f ca="1"/>
-        <v>t0014</v>
+        <v>t0005</v>
       </c>
       <c r="C87" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D87" t="str">
         <f ca="1"/>
-        <v>24/12/2018</v>
+        <v>16/10/2019</v>
       </c>
       <c r="E87" t="str">
         <f ca="1"/>
-        <v>24/09/2018</v>
+        <v>16/10/2019</v>
       </c>
       <c r="F87" t="str">
         <f ca="1"/>
@@ -5827,19 +5835,19 @@
       </c>
       <c r="G87" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H87" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I87" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J87" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K87" t="str">
         <f ca="1"/>
@@ -5855,37 +5863,37 @@
       </c>
       <c r="N87" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O87" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P87" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O87" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P87" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>FxSpot</v>
       </c>
       <c r="B88" s="2" t="str">
         <f ca="1"/>
-        <v>t0008</v>
+        <v>t0006</v>
       </c>
       <c r="C88" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D88" t="str">
         <f ca="1"/>
-        <v>25/06/2018</v>
+        <v>21/10/2019</v>
       </c>
       <c r="E88" t="str">
         <f ca="1"/>
-        <v>26/03/2018</v>
+        <v>21/10/2019</v>
       </c>
       <c r="F88" t="str">
         <f ca="1"/>
@@ -5893,19 +5901,19 @@
       </c>
       <c r="G88" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H88" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I88" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J88" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K88" t="str">
         <f ca="1"/>
@@ -5921,37 +5929,37 @@
       </c>
       <c r="N88" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O88" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P88" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O88" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P88" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B89" s="2" t="str">
         <f ca="1"/>
-        <v>t0009</v>
+        <v>eq_001</v>
       </c>
       <c r="C89" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/06/2019</v>
       </c>
       <c r="D89" t="str">
         <f ca="1"/>
-        <v>24/10/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="E89" t="str">
         <f ca="1"/>
-        <v>24/04/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="F89" t="str">
         <f ca="1"/>
@@ -5963,15 +5971,15 @@
       </c>
       <c r="H89" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I89" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J89" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K89" t="str">
         <f ca="1"/>
@@ -5979,45 +5987,45 @@
       </c>
       <c r="L89" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M89" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M89" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N89" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O89" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P89" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O89" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P89" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B90" s="2" t="str">
         <f ca="1"/>
-        <v>t0010</v>
+        <v>eq_001</v>
       </c>
       <c r="C90" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/06/2019</v>
       </c>
       <c r="D90" t="str">
         <f ca="1"/>
-        <v>25/06/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="E90" t="str">
         <f ca="1"/>
-        <v>24/05/2018</v>
+        <v>11/06/2019</v>
       </c>
       <c r="F90" t="str">
         <f ca="1"/>
@@ -6029,15 +6037,15 @@
       </c>
       <c r="H90" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I90" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J90" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K90" t="str">
         <f ca="1"/>
@@ -6053,37 +6061,37 @@
       </c>
       <c r="N90" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O90" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P90" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O90" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P90" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B91" s="2" t="str">
         <f ca="1"/>
-        <v>t0003</v>
+        <v>eq_002</v>
       </c>
       <c r="C91" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>10/06/2019</v>
       </c>
       <c r="D91" t="str">
         <f ca="1"/>
-        <v>25/06/2018</v>
+        <v>13/06/2019</v>
       </c>
       <c r="E91" t="str">
         <f ca="1"/>
-        <v>24/05/2018</v>
+        <v>13/06/2019</v>
       </c>
       <c r="F91" t="str">
         <f ca="1"/>
@@ -6095,15 +6103,15 @@
       </c>
       <c r="H91" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I91" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J91" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K91" t="str">
         <f ca="1"/>
@@ -6111,11 +6119,11 @@
       </c>
       <c r="L91" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M91" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M91" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N91" t="str">
         <f ca="1"/>
@@ -6133,23 +6141,23 @@
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B92" s="2" t="str">
         <f ca="1"/>
-        <v>t0011</v>
+        <v>eq_002</v>
       </c>
       <c r="C92" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>10/06/2019</v>
       </c>
       <c r="D92" t="str">
         <f ca="1"/>
-        <v>24/09/2018</v>
+        <v>13/06/2019</v>
       </c>
       <c r="E92" t="str">
         <f ca="1"/>
-        <v>25/06/2018</v>
+        <v>13/06/2019</v>
       </c>
       <c r="F92" t="str">
         <f ca="1"/>
@@ -6161,15 +6169,15 @@
       </c>
       <c r="H92" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I92" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J92" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K92" t="str">
         <f ca="1"/>
@@ -6185,37 +6193,37 @@
       </c>
       <c r="N92" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O92" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P92" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O92" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P92" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B93" s="2" t="str">
         <f ca="1"/>
-        <v>t0006</v>
+        <v>eq_004</v>
       </c>
       <c r="C93" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>14/06/2019</v>
       </c>
       <c r="D93" t="str">
         <f ca="1"/>
-        <v>24/09/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="E93" t="str">
         <f ca="1"/>
-        <v>24/08/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="F93" t="str">
         <f ca="1"/>
@@ -6227,15 +6235,15 @@
       </c>
       <c r="H93" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I93" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J93" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K93" t="str">
         <f ca="1"/>
@@ -6243,45 +6251,45 @@
       </c>
       <c r="L93" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M93" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M93" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N93" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O93" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P93" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O93" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P93" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B94" s="2" t="str">
         <f ca="1"/>
-        <v>t0007</v>
+        <v>eq_004</v>
       </c>
       <c r="C94" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>14/06/2019</v>
       </c>
       <c r="D94" t="str">
         <f ca="1"/>
-        <v>24/12/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="E94" t="str">
         <f ca="1"/>
-        <v>24/09/2018</v>
+        <v>17/06/2019</v>
       </c>
       <c r="F94" t="str">
         <f ca="1"/>
@@ -6293,15 +6301,15 @@
       </c>
       <c r="H94" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I94" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J94" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K94" t="str">
         <f ca="1"/>
@@ -6321,7 +6329,7 @@
       </c>
       <c r="O94" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>NAB</v>
       </c>
       <c r="P94" t="str">
         <f ca="1"/>
@@ -6331,23 +6339,23 @@
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B95" s="2" t="str">
         <f ca="1"/>
-        <v>t0002</v>
+        <v>eq_009</v>
       </c>
       <c r="C95" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>24/06/2019</v>
       </c>
       <c r="D95" t="str">
         <f ca="1"/>
-        <v>24/10/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="E95" t="str">
         <f ca="1"/>
-        <v>24/04/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="F95" t="str">
         <f ca="1"/>
@@ -6359,15 +6367,15 @@
       </c>
       <c r="H95" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I95" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J95" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K95" t="str">
         <f ca="1"/>
@@ -6375,45 +6383,45 @@
       </c>
       <c r="L95" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M95" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M95" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N95" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O95" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P95" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O95" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P95" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B96" s="2" t="str">
         <f ca="1"/>
-        <v>t0004</v>
+        <v>eq_009</v>
       </c>
       <c r="C96" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>24/06/2019</v>
       </c>
       <c r="D96" t="str">
         <f ca="1"/>
-        <v>24/09/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="E96" t="str">
         <f ca="1"/>
-        <v>25/06/2018</v>
+        <v>27/06/2019</v>
       </c>
       <c r="F96" t="str">
         <f ca="1"/>
@@ -6425,15 +6433,15 @@
       </c>
       <c r="H96" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I96" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J96" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K96" t="str">
         <f ca="1"/>
@@ -6453,7 +6461,7 @@
       </c>
       <c r="O96" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>ANZ</v>
       </c>
       <c r="P96" t="str">
         <f ca="1"/>
@@ -6463,23 +6471,23 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B97" s="2" t="str">
         <f ca="1"/>
-        <v>t0012</v>
+        <v>eq_003</v>
       </c>
       <c r="C97" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>12/06/2019</v>
       </c>
       <c r="D97" t="str">
         <f ca="1"/>
-        <v>24/01/2019</v>
+        <v>15/06/2019</v>
       </c>
       <c r="E97" t="str">
         <f ca="1"/>
-        <v>24/07/2018</v>
+        <v>15/06/2019</v>
       </c>
       <c r="F97" t="str">
         <f ca="1"/>
@@ -6491,15 +6499,15 @@
       </c>
       <c r="H97" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I97" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J97" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K97" t="str">
         <f ca="1"/>
@@ -6507,45 +6515,45 @@
       </c>
       <c r="L97" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M97" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M97" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N97" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O97" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P97" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O97" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P97" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f ca="1"/>
-        <v>CapFloor</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B98" s="2" t="str">
         <f ca="1"/>
-        <v>nb001</v>
+        <v>eq_003</v>
       </c>
       <c r="C98" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>12/06/2019</v>
       </c>
       <c r="D98" t="str">
         <f ca="1"/>
-        <v>9/08/2021</v>
+        <v>15/06/2019</v>
       </c>
       <c r="E98" t="str">
         <f ca="1"/>
-        <v>9/09/2011</v>
+        <v>15/06/2019</v>
       </c>
       <c r="F98" t="str">
         <f ca="1"/>
@@ -6557,15 +6565,15 @@
       </c>
       <c r="H98" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I98" t="str">
         <f ca="1"/>
-        <v>InterestRate:CapFloor</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J98" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K98" t="str">
         <f ca="1"/>
@@ -6595,23 +6603,23 @@
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B99" s="2" t="str">
         <f ca="1"/>
-        <v>t000x</v>
+        <v>eq_010</v>
       </c>
       <c r="C99" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D99" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="E99" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F99" t="str">
         <f ca="1"/>
@@ -6623,15 +6631,15 @@
       </c>
       <c r="H99" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I99" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J99" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K99" t="str">
         <f ca="1"/>
@@ -6639,23 +6647,23 @@
       </c>
       <c r="L99" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M99" t="str">
+        <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M99" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
       <c r="N99" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O99" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P99" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O99" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P99" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -6665,19 +6673,19 @@
       </c>
       <c r="B100" s="2" t="str">
         <f ca="1"/>
-        <v>010</v>
+        <v>eq_010</v>
       </c>
       <c r="C100" s="2" t="str">
         <f ca="1"/>
-        <v>22/02/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="D100" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="E100" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F100" t="str">
         <f ca="1"/>
@@ -6697,7 +6705,7 @@
       </c>
       <c r="J100" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K100" t="str">
         <f ca="1"/>
@@ -6727,23 +6735,23 @@
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B101" s="2" t="str">
         <f ca="1"/>
-        <v>010</v>
+        <v>eq_008</v>
       </c>
       <c r="C101" s="2" t="str">
         <f ca="1"/>
-        <v>22/02/2018</v>
+        <v>22/06/2019</v>
       </c>
       <c r="D101" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="E101" t="str">
         <f ca="1"/>
-        <v>25/02/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="F101" t="str">
         <f ca="1"/>
@@ -6755,15 +6763,15 @@
       </c>
       <c r="H101" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I101" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J101" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K101" t="str">
         <f ca="1"/>
@@ -6779,15 +6787,15 @@
       </c>
       <c r="N101" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O101" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P101" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O101" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P101" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -6797,19 +6805,19 @@
       </c>
       <c r="B102" s="2" t="str">
         <f ca="1"/>
-        <v>009</v>
+        <v>eq_008</v>
       </c>
       <c r="C102" s="2" t="str">
         <f ca="1"/>
-        <v>20/02/2018</v>
+        <v>22/06/2019</v>
       </c>
       <c r="D102" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="E102" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>25/06/2019</v>
       </c>
       <c r="F102" t="str">
         <f ca="1"/>
@@ -6829,7 +6837,7 @@
       </c>
       <c r="J102" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K102" t="str">
         <f ca="1"/>
@@ -6849,7 +6857,7 @@
       </c>
       <c r="O102" t="str">
         <f ca="1"/>
-        <v>ANZ</v>
+        <v>CBA</v>
       </c>
       <c r="P102" t="str">
         <f ca="1"/>
@@ -6859,23 +6867,23 @@
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B103" s="2" t="str">
         <f ca="1"/>
-        <v>009</v>
+        <v>eq_007</v>
       </c>
       <c r="C103" s="2" t="str">
         <f ca="1"/>
-        <v>20/02/2018</v>
+        <v>20/06/2019</v>
       </c>
       <c r="D103" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="E103" t="str">
         <f ca="1"/>
-        <v>23/02/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="F103" t="str">
         <f ca="1"/>
@@ -6887,15 +6895,15 @@
       </c>
       <c r="H103" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I103" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J103" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K103" t="str">
         <f ca="1"/>
@@ -6911,15 +6919,15 @@
       </c>
       <c r="N103" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O103" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P103" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O103" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P103" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -6929,19 +6937,19 @@
       </c>
       <c r="B104" s="2" t="str">
         <f ca="1"/>
-        <v>008</v>
+        <v>eq_007</v>
       </c>
       <c r="C104" s="2" t="str">
         <f ca="1"/>
-        <v>18/02/2018</v>
+        <v>20/06/2019</v>
       </c>
       <c r="D104" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="E104" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>23/06/2019</v>
       </c>
       <c r="F104" t="str">
         <f ca="1"/>
@@ -6961,7 +6969,7 @@
       </c>
       <c r="J104" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K104" t="str">
         <f ca="1"/>
@@ -6991,23 +6999,23 @@
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B105" s="2" t="str">
         <f ca="1"/>
-        <v>008</v>
+        <v>eq_006</v>
       </c>
       <c r="C105" s="2" t="str">
         <f ca="1"/>
-        <v>18/02/2018</v>
+        <v>18/06/2019</v>
       </c>
       <c r="D105" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="E105" t="str">
         <f ca="1"/>
-        <v>21/02/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="F105" t="str">
         <f ca="1"/>
@@ -7019,15 +7027,15 @@
       </c>
       <c r="H105" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I105" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J105" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K105" t="str">
         <f ca="1"/>
@@ -7061,19 +7069,19 @@
       </c>
       <c r="B106" s="2" t="str">
         <f ca="1"/>
-        <v>007</v>
+        <v>eq_006</v>
       </c>
       <c r="C106" s="2" t="str">
         <f ca="1"/>
-        <v>16/02/2018</v>
+        <v>18/06/2019</v>
       </c>
       <c r="D106" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="E106" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>21/06/2019</v>
       </c>
       <c r="F106" t="str">
         <f ca="1"/>
@@ -7093,7 +7101,7 @@
       </c>
       <c r="J106" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K106" t="str">
         <f ca="1"/>
@@ -7123,23 +7131,23 @@
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B107" s="2" t="str">
         <f ca="1"/>
-        <v>007</v>
+        <v>eq_005</v>
       </c>
       <c r="C107" s="2" t="str">
         <f ca="1"/>
-        <v>16/02/2018</v>
+        <v>16/06/2019</v>
       </c>
       <c r="D107" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="E107" t="str">
         <f ca="1"/>
-        <v>19/02/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="F107" t="str">
         <f ca="1"/>
@@ -7151,15 +7159,15 @@
       </c>
       <c r="H107" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I107" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J107" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K107" t="str">
         <f ca="1"/>
@@ -7175,15 +7183,15 @@
       </c>
       <c r="N107" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O107" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P107" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O107" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P107" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -7193,19 +7201,19 @@
       </c>
       <c r="B108" s="2" t="str">
         <f ca="1"/>
-        <v>006</v>
+        <v>eq_005</v>
       </c>
       <c r="C108" s="2" t="str">
         <f ca="1"/>
-        <v>14/02/2018</v>
+        <v>16/06/2019</v>
       </c>
       <c r="D108" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="E108" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>19/06/2019</v>
       </c>
       <c r="F108" t="str">
         <f ca="1"/>
@@ -7225,7 +7233,7 @@
       </c>
       <c r="J108" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K108" t="str">
         <f ca="1"/>
@@ -7245,7 +7253,7 @@
       </c>
       <c r="O108" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>NAB</v>
       </c>
       <c r="P108" t="str">
         <f ca="1"/>
@@ -7255,23 +7263,23 @@
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B109" s="2" t="str">
         <f ca="1"/>
-        <v>006</v>
+        <v>nb001</v>
       </c>
       <c r="C109" s="2" t="str">
         <f ca="1"/>
-        <v>14/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D109" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>1/06/2029</v>
       </c>
       <c r="E109" t="str">
         <f ca="1"/>
-        <v>17/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F109" t="str">
         <f ca="1"/>
@@ -7283,15 +7291,15 @@
       </c>
       <c r="H109" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I109" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J109" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K109" t="str">
         <f ca="1"/>
@@ -7301,9 +7309,9 @@
         <f ca="1"/>
         <v>Pricing</v>
       </c>
-      <c r="M109" t="str">
-        <f ca="1"/>
-        <v>Test</v>
+      <c r="M109">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="N109" t="str">
         <f ca="1"/>
@@ -7321,23 +7329,23 @@
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B110" s="2" t="str">
         <f ca="1"/>
-        <v>005</v>
+        <v>nb002</v>
       </c>
       <c r="C110" s="2" t="str">
         <f ca="1"/>
-        <v>12/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D110" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E110" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F110" t="str">
         <f ca="1"/>
@@ -7349,15 +7357,15 @@
       </c>
       <c r="H110" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I110" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J110" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K110" t="str">
         <f ca="1"/>
@@ -7365,11 +7373,11 @@
       </c>
       <c r="L110" t="str">
         <f ca="1"/>
-        <v>Test</v>
-      </c>
-      <c r="M110" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
+        <v>Pricing</v>
+      </c>
+      <c r="M110">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="N110" t="str">
         <f ca="1"/>
@@ -7377,7 +7385,7 @@
       </c>
       <c r="O110" t="str">
         <f ca="1"/>
-        <v>NAB</v>
+        <v>CBA</v>
       </c>
       <c r="P110" t="str">
         <f ca="1"/>
@@ -7387,23 +7395,23 @@
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B111" s="2" t="str">
         <f ca="1"/>
-        <v>005</v>
+        <v>nb003</v>
       </c>
       <c r="C111" s="2" t="str">
         <f ca="1"/>
-        <v>12/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D111" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E111" t="str">
         <f ca="1"/>
-        <v>15/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F111" t="str">
         <f ca="1"/>
@@ -7415,15 +7423,15 @@
       </c>
       <c r="H111" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I111" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J111" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K111" t="str">
         <f ca="1"/>
@@ -7431,45 +7439,45 @@
       </c>
       <c r="L111" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M111" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N111" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O111" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P111" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O111" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P111" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B112" s="2" t="str">
         <f ca="1"/>
-        <v>004</v>
+        <v>t0004</v>
       </c>
       <c r="C112" s="2" t="str">
         <f ca="1"/>
-        <v>10/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D112" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>29/06/2029</v>
       </c>
       <c r="E112" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F112" t="str">
         <f ca="1"/>
@@ -7481,15 +7489,15 @@
       </c>
       <c r="H112" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I112" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J112" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K112" t="str">
         <f ca="1"/>
@@ -7509,7 +7517,7 @@
       </c>
       <c r="O112" t="str">
         <f ca="1"/>
-        <v>NAB</v>
+        <v>CBA</v>
       </c>
       <c r="P112" t="str">
         <f ca="1"/>
@@ -7519,23 +7527,23 @@
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B113" s="2" t="str">
         <f ca="1"/>
-        <v>004</v>
+        <v>t0002</v>
       </c>
       <c r="C113" s="2" t="str">
         <f ca="1"/>
-        <v>10/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D113" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>23/10/2015</v>
       </c>
       <c r="E113" t="str">
         <f ca="1"/>
-        <v>13/02/2018</v>
+        <v>23/10/2011</v>
       </c>
       <c r="F113" t="str">
         <f ca="1"/>
@@ -7547,15 +7555,15 @@
       </c>
       <c r="H113" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I113" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J113" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K113" t="str">
         <f ca="1"/>
@@ -7563,45 +7571,45 @@
       </c>
       <c r="L113" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M113" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N113" t="str">
         <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O113" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P113" t="str">
+        <f ca="1"/>
         <v>Party2</v>
-      </c>
-      <c r="O113" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P113" t="str">
-        <f ca="1"/>
-        <v>Party1</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B114" s="2" t="str">
         <f ca="1"/>
-        <v>testtrade_001</v>
+        <v>t0003</v>
       </c>
       <c r="C114" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D114" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>28/06/2024</v>
       </c>
       <c r="E114" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F114" t="str">
         <f ca="1"/>
@@ -7613,15 +7621,15 @@
       </c>
       <c r="H114" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I114" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J114" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K114" t="str">
         <f ca="1"/>
@@ -7651,23 +7659,23 @@
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B115" s="2" t="str">
         <f ca="1"/>
-        <v>testtrade_001</v>
+        <v>t0001</v>
       </c>
       <c r="C115" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D115" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>29/06/2022</v>
       </c>
       <c r="E115" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F115" t="str">
         <f ca="1"/>
@@ -7679,15 +7687,15 @@
       </c>
       <c r="H115" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I115" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J115" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K115" t="str">
         <f ca="1"/>
@@ -7695,11 +7703,11 @@
       </c>
       <c r="L115" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M115" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N115" t="str">
         <f ca="1"/>
@@ -7717,27 +7725,27 @@
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FutureTransaction</v>
       </c>
       <c r="B116" s="2" t="str">
         <f ca="1"/>
-        <v>003</v>
+        <v>testtrade_001</v>
       </c>
       <c r="C116" s="2" t="str">
         <f ca="1"/>
-        <v>8/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D116" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>13/09/2019</v>
       </c>
       <c r="E116" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
-      </c>
-      <c r="F116" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
+        <v>28/06/2019</v>
+      </c>
+      <c r="F116">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="G116" t="str">
         <f ca="1"/>
@@ -7745,27 +7753,27 @@
       </c>
       <c r="H116" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I116" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ExchangeTraded:Future</v>
       </c>
       <c r="J116" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
-      </c>
-      <c r="K116" t="str">
-        <f ca="1"/>
-        <v>SpreadSheet</v>
-      </c>
-      <c r="L116" t="str">
-        <f ca="1"/>
-        <v>Test</v>
-      </c>
-      <c r="M116" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K116">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="N116" t="str">
         <f ca="1"/>
@@ -7783,23 +7791,23 @@
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>FRA</v>
       </c>
       <c r="B117" s="2" t="str">
         <f ca="1"/>
-        <v>003</v>
+        <v>t0001</v>
       </c>
       <c r="C117" s="2" t="str">
         <f ca="1"/>
-        <v>8/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D117" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>28/10/2019</v>
       </c>
       <c r="E117" t="str">
         <f ca="1"/>
-        <v>11/02/2018</v>
+        <v>29/07/2019</v>
       </c>
       <c r="F117" t="str">
         <f ca="1"/>
@@ -7811,15 +7819,15 @@
       </c>
       <c r="H117" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I117" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J117" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K117" t="str">
         <f ca="1"/>
@@ -7827,11 +7835,11 @@
       </c>
       <c r="L117" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M117" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N117" t="str">
         <f ca="1"/>
@@ -7849,23 +7857,23 @@
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FRA</v>
       </c>
       <c r="B118" s="2" t="str">
         <f ca="1"/>
-        <v>002</v>
+        <v>t0005</v>
       </c>
       <c r="C118" s="2" t="str">
         <f ca="1"/>
-        <v>6/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D118" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>28/05/2020</v>
       </c>
       <c r="E118" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>28/11/2019</v>
       </c>
       <c r="F118" t="str">
         <f ca="1"/>
@@ -7877,15 +7885,15 @@
       </c>
       <c r="H118" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I118" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J118" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K118" t="str">
         <f ca="1"/>
@@ -7915,23 +7923,23 @@
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>FRA</v>
       </c>
       <c r="B119" s="2" t="str">
         <f ca="1"/>
-        <v>002</v>
+        <v>t0013</v>
       </c>
       <c r="C119" s="2" t="str">
         <f ca="1"/>
-        <v>6/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D119" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>28/01/2020</v>
       </c>
       <c r="E119" t="str">
         <f ca="1"/>
-        <v>9/02/2018</v>
+        <v>30/12/2019</v>
       </c>
       <c r="F119" t="str">
         <f ca="1"/>
@@ -7943,15 +7951,15 @@
       </c>
       <c r="H119" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="I119" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:FRA</v>
       </c>
       <c r="J119" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K119" t="str">
         <f ca="1"/>
@@ -7959,45 +7967,45 @@
       </c>
       <c r="L119" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M119" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N119" t="str">
         <f ca="1"/>
+        <v>Party2</v>
+      </c>
+      <c r="O119" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P119" t="str">
+        <f ca="1"/>
         <v>Party1</v>
-      </c>
-      <c r="O119" t="str">
-        <f ca="1"/>
-        <v>CBA</v>
-      </c>
-      <c r="P119" t="str">
-        <f ca="1"/>
-        <v>Party2</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FxSpot</v>
       </c>
       <c r="B120" s="2" t="str">
         <f ca="1"/>
-        <v>001</v>
+        <v>t0001</v>
       </c>
       <c r="C120" s="2" t="str">
         <f ca="1"/>
-        <v>4/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D120" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="E120" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>26/09/2019</v>
       </c>
       <c r="F120" t="str">
         <f ca="1"/>
@@ -8005,19 +8013,19 @@
       </c>
       <c r="G120" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H120" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I120" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J120" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K120" t="str">
         <f ca="1"/>
@@ -8047,23 +8055,23 @@
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>FxOption</v>
       </c>
       <c r="B121" s="2" t="str">
         <f ca="1"/>
-        <v>001</v>
+        <v>fxo0002</v>
       </c>
       <c r="C121" s="2" t="str">
         <f ca="1"/>
-        <v>4/02/2018</v>
+        <v>22/01/2018</v>
       </c>
       <c r="D121" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>26/07/2018</v>
       </c>
       <c r="E121" t="str">
         <f ca="1"/>
-        <v>7/02/2018</v>
+        <v>24/07/2018</v>
       </c>
       <c r="F121" t="str">
         <f ca="1"/>
@@ -8071,19 +8079,19 @@
       </c>
       <c r="G121" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H121" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;FxVolatilityMatrix.AUDUSD-FxSpot</v>
       </c>
       <c r="I121" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>ForeignExchange:VanillaOption</v>
       </c>
       <c r="J121" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K121" t="str">
         <f ca="1"/>
@@ -8091,11 +8099,11 @@
       </c>
       <c r="L121" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M121" t="str">
         <f ca="1"/>
-        <v>Test</v>
+        <v>Pricing</v>
       </c>
       <c r="N121" t="str">
         <f ca="1"/>
@@ -8113,7 +8121,7 @@
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FutureTransaction</v>
       </c>
       <c r="B122" s="2" t="str">
         <f ca="1"/>
@@ -8121,15 +8129,15 @@
       </c>
       <c r="C122" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D122" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>13/09/2019</v>
       </c>
       <c r="E122" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F122" t="str">
         <f ca="1"/>
@@ -8141,15 +8149,15 @@
       </c>
       <c r="H122" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I122" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ExchangeTraded:Future</v>
       </c>
       <c r="J122" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K122" t="str">
         <f ca="1"/>
@@ -8157,11 +8165,11 @@
       </c>
       <c r="L122" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M122" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M122" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N122" t="str">
         <f ca="1"/>
@@ -8179,23 +8187,23 @@
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f ca="1"/>
-        <v>BondTransaction</v>
+        <v>InterestRateSwaption</v>
       </c>
       <c r="B123" s="2" t="str">
         <f ca="1"/>
-        <v>testtrade_002</v>
+        <v>nb002</v>
       </c>
       <c r="C123" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D123" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E123" t="str">
         <f ca="1"/>
-        <v>1/03/2018</v>
+        <v>2/07/2024</v>
       </c>
       <c r="F123" t="str">
         <f ca="1"/>
@@ -8207,15 +8215,15 @@
       </c>
       <c r="H123" t="str">
         <f ca="1"/>
-        <v>BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019;DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="I123" t="str">
         <f ca="1"/>
-        <v>InterestRate:Debt:Government:Fixed:Bullet</v>
+        <v>InterestRate:Option:Swaption</v>
       </c>
       <c r="J123" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K123" t="str">
         <f ca="1"/>
@@ -8225,9 +8233,9 @@
         <f ca="1"/>
         <v>Pricing</v>
       </c>
-      <c r="M123" t="str">
-        <f ca="1"/>
-        <v>Test</v>
+      <c r="M123">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="N123" t="str">
         <f ca="1"/>
@@ -8245,23 +8253,23 @@
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>CapFloor</v>
       </c>
       <c r="B124" s="2" t="str">
         <f ca="1"/>
-        <v>t0009</v>
+        <v>nb002</v>
       </c>
       <c r="C124" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/11/2008</v>
       </c>
       <c r="D124" t="str">
         <f ca="1"/>
-        <v>4/07/2018</v>
+        <v>10/10/2018</v>
       </c>
       <c r="E124" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>10/11/2008</v>
       </c>
       <c r="F124" t="str">
         <f ca="1"/>
@@ -8273,15 +8281,15 @@
       </c>
       <c r="H124" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I124" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>InterestRate:CapFloor</v>
       </c>
       <c r="J124" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K124" t="str">
         <f ca="1"/>
@@ -8311,23 +8319,23 @@
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FxSpot</v>
       </c>
       <c r="B125" s="2" t="str">
         <f ca="1"/>
-        <v>bn002</v>
+        <v>t0007</v>
       </c>
       <c r="C125" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D125" t="str">
         <f ca="1"/>
-        <v>28/02/2028</v>
+        <v>26/10/2019</v>
       </c>
       <c r="E125" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>26/10/2019</v>
       </c>
       <c r="F125" t="str">
         <f ca="1"/>
@@ -8335,19 +8343,19 @@
       </c>
       <c r="G125" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H125" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I125" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J125" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K125" t="str">
         <f ca="1"/>
@@ -8355,7 +8363,7 @@
       </c>
       <c r="L125" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M125" t="str">
         <f ca="1"/>
@@ -8377,23 +8385,23 @@
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f ca="1"/>
-        <v>InterestRateSwap</v>
+        <v>FxSpot</v>
       </c>
       <c r="B126" s="2" t="str">
         <f ca="1"/>
-        <v>bn001</v>
+        <v>t0008</v>
       </c>
       <c r="C126" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D126" t="str">
         <f ca="1"/>
-        <v>27/01/2028</v>
+        <v>31/10/2019</v>
       </c>
       <c r="E126" t="str">
         <f ca="1"/>
-        <v>26/02/2018</v>
+        <v>31/10/2019</v>
       </c>
       <c r="F126" t="str">
         <f ca="1"/>
@@ -8401,19 +8409,19 @@
       </c>
       <c r="G126" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H126" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I126" t="str">
         <f ca="1"/>
-        <v>InterestRate:IRSwap:FixedFloat</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J126" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K126" t="str">
         <f ca="1"/>
@@ -8421,7 +8429,7 @@
       </c>
       <c r="L126" t="str">
         <f ca="1"/>
-        <v>Pricing</v>
+        <v>Test</v>
       </c>
       <c r="M126" t="str">
         <f ca="1"/>
@@ -8443,23 +8451,23 @@
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>FxSpot</v>
       </c>
       <c r="B127" s="2" t="str">
         <f ca="1"/>
-        <v>CBA0004</v>
+        <v>t0009</v>
       </c>
       <c r="C127" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D127" t="str">
         <f ca="1"/>
-        <v>24/08/2018</v>
+        <v>5/11/2019</v>
       </c>
       <c r="E127" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>5/11/2019</v>
       </c>
       <c r="F127" t="str">
         <f ca="1"/>
@@ -8467,19 +8475,19 @@
       </c>
       <c r="G127" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H127" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I127" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J127" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K127" t="str">
         <f ca="1"/>
@@ -8509,23 +8517,23 @@
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>FxSpot</v>
       </c>
       <c r="B128" s="2" t="str">
         <f ca="1"/>
-        <v>t0005</v>
+        <v>t0010</v>
       </c>
       <c r="C128" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D128" t="str">
         <f ca="1"/>
-        <v>14/06/2018</v>
+        <v>10/11/2019</v>
       </c>
       <c r="E128" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>10/11/2019</v>
       </c>
       <c r="F128" t="str">
         <f ca="1"/>
@@ -8533,19 +8541,19 @@
       </c>
       <c r="G128" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H128" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I128" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J128" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K128" t="str">
         <f ca="1"/>
@@ -8575,23 +8583,23 @@
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>FxSpot</v>
       </c>
       <c r="B129" s="2" t="str">
         <f ca="1"/>
-        <v>t0004</v>
+        <v>t0011</v>
       </c>
       <c r="C129" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D129" t="str">
         <f ca="1"/>
-        <v>9/06/2018</v>
+        <v>15/11/2019</v>
       </c>
       <c r="E129" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>15/11/2019</v>
       </c>
       <c r="F129" t="str">
         <f ca="1"/>
@@ -8599,19 +8607,19 @@
       </c>
       <c r="G129" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H129" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I129" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J129" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K129" t="str">
         <f ca="1"/>
@@ -8641,23 +8649,23 @@
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>FxSpot</v>
       </c>
       <c r="B130" s="2" t="str">
         <f ca="1"/>
-        <v>t0003</v>
+        <v>t0012</v>
       </c>
       <c r="C130" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D130" t="str">
         <f ca="1"/>
-        <v>4/06/2018</v>
+        <v>20/11/2019</v>
       </c>
       <c r="E130" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>20/11/2019</v>
       </c>
       <c r="F130" t="str">
         <f ca="1"/>
@@ -8665,19 +8673,19 @@
       </c>
       <c r="G130" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H130" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I130" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>ForeignExchange:Spot</v>
       </c>
       <c r="J130" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K130" t="str">
         <f ca="1"/>
@@ -8707,23 +8715,23 @@
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>FxSwap</v>
       </c>
       <c r="B131" s="2" t="str">
         <f ca="1"/>
-        <v>t0002</v>
+        <v>t0017</v>
       </c>
       <c r="C131" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/08/2011</v>
       </c>
       <c r="D131" t="str">
         <f ca="1"/>
-        <v>30/05/2018</v>
+        <v>20/03/2012</v>
       </c>
       <c r="E131" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>21/12/2011</v>
       </c>
       <c r="F131" t="str">
         <f ca="1"/>
@@ -8731,19 +8739,19 @@
       </c>
       <c r="G131" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H131" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I131" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>ForeignExchange:Swap</v>
       </c>
       <c r="J131" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K131" t="str">
         <f ca="1"/>
@@ -8773,23 +8781,23 @@
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>FxSwap</v>
       </c>
       <c r="B132" s="2" t="str">
         <f ca="1"/>
-        <v>t0001</v>
+        <v>t0018</v>
       </c>
       <c r="C132" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/08/2011</v>
       </c>
       <c r="D132" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>18/06/2012</v>
       </c>
       <c r="E132" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>21/12/2011</v>
       </c>
       <c r="F132" t="str">
         <f ca="1"/>
@@ -8797,19 +8805,19 @@
       </c>
       <c r="G132" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H132" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I132" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>ForeignExchange:Swap</v>
       </c>
       <c r="J132" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K132" t="str">
         <f ca="1"/>
@@ -8839,23 +8847,23 @@
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FxSwap</v>
       </c>
       <c r="B133" s="2" t="str">
         <f ca="1"/>
-        <v>t0008</v>
+        <v>t0019</v>
       </c>
       <c r="C133" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/08/2011</v>
       </c>
       <c r="D133" t="str">
         <f ca="1"/>
-        <v>29/06/2018</v>
+        <v>16/09/2012</v>
       </c>
       <c r="E133" t="str">
         <f ca="1"/>
-        <v>29/06/2018</v>
+        <v>21/12/2011</v>
       </c>
       <c r="F133" t="str">
         <f ca="1"/>
@@ -8863,19 +8871,19 @@
       </c>
       <c r="G133" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H133" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I133" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ForeignExchange:Swap</v>
       </c>
       <c r="J133" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K133" t="str">
         <f ca="1"/>
@@ -8905,23 +8913,23 @@
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FxForward</v>
       </c>
       <c r="B134" s="2" t="str">
         <f ca="1"/>
-        <v>t0007</v>
+        <v>t0013</v>
       </c>
       <c r="C134" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/08/2011</v>
       </c>
       <c r="D134" t="str">
         <f ca="1"/>
-        <v>24/06/2018</v>
+        <v>21/12/2011</v>
       </c>
       <c r="E134" t="str">
         <f ca="1"/>
-        <v>24/06/2018</v>
+        <v>21/12/2011</v>
       </c>
       <c r="F134" t="str">
         <f ca="1"/>
@@ -8929,19 +8937,19 @@
       </c>
       <c r="G134" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H134" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I134" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ForeignExchange:Forward</v>
       </c>
       <c r="J134" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K134" t="str">
         <f ca="1"/>
@@ -8971,23 +8979,23 @@
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FxForward</v>
       </c>
       <c r="B135" s="2" t="str">
         <f ca="1"/>
-        <v>t0006</v>
+        <v>t0014</v>
       </c>
       <c r="C135" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/08/2011</v>
       </c>
       <c r="D135" t="str">
         <f ca="1"/>
-        <v>19/06/2018</v>
+        <v>26/12/2011</v>
       </c>
       <c r="E135" t="str">
         <f ca="1"/>
-        <v>19/06/2018</v>
+        <v>26/12/2011</v>
       </c>
       <c r="F135" t="str">
         <f ca="1"/>
@@ -8995,19 +9003,19 @@
       </c>
       <c r="G135" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H135" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I135" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ForeignExchange:Forward</v>
       </c>
       <c r="J135" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K135" t="str">
         <f ca="1"/>
@@ -9037,23 +9045,23 @@
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>FxForward</v>
       </c>
       <c r="B136" s="2" t="str">
         <f ca="1"/>
-        <v>t0005</v>
+        <v>t0015</v>
       </c>
       <c r="C136" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>8/08/2011</v>
       </c>
       <c r="D136" t="str">
         <f ca="1"/>
-        <v>14/06/2018</v>
+        <v>31/12/2011</v>
       </c>
       <c r="E136" t="str">
         <f ca="1"/>
-        <v>14/06/2018</v>
+        <v>31/12/2011</v>
       </c>
       <c r="F136" t="str">
         <f ca="1"/>
@@ -9061,19 +9069,19 @@
       </c>
       <c r="G136" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H136" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="I136" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>ForeignExchange:Forward</v>
       </c>
       <c r="J136" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K136" t="str">
         <f ca="1"/>
@@ -9103,23 +9111,23 @@
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B137" s="2" t="str">
         <f ca="1"/>
-        <v>t0004</v>
+        <v>ss001</v>
       </c>
       <c r="C137" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D137" t="str">
         <f ca="1"/>
-        <v>9/06/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E137" t="str">
         <f ca="1"/>
-        <v>9/06/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F137" t="str">
         <f ca="1"/>
@@ -9131,15 +9139,15 @@
       </c>
       <c r="H137" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I137" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:IRSwap:FixedFloat</v>
       </c>
       <c r="J137" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K137" t="str">
         <f ca="1"/>
@@ -9169,23 +9177,23 @@
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B138" s="2" t="str">
         <f ca="1"/>
-        <v>t0003</v>
+        <v>xccy0001</v>
       </c>
       <c r="C138" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D138" t="str">
         <f ca="1"/>
-        <v>4/06/2018</v>
+        <v>30/06/2022</v>
       </c>
       <c r="E138" t="str">
         <f ca="1"/>
-        <v>4/06/2018</v>
+        <v>30/06/2019</v>
       </c>
       <c r="F138" t="str">
         <f ca="1"/>
@@ -9193,31 +9201,31 @@
       </c>
       <c r="G138" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H138" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
       <c r="I138" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J138" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K138" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L138" t="str">
+      <c r="L138">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M138" t="str">
         <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M138" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N138" t="str">
         <f ca="1"/>
@@ -9235,23 +9243,23 @@
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B139" s="2" t="str">
         <f ca="1"/>
-        <v>t0002</v>
+        <v>xccy0002</v>
       </c>
       <c r="C139" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D139" t="str">
         <f ca="1"/>
-        <v>30/05/2018</v>
+        <v>5/07/2023</v>
       </c>
       <c r="E139" t="str">
         <f ca="1"/>
-        <v>30/05/2018</v>
+        <v>5/07/2019</v>
       </c>
       <c r="F139" t="str">
         <f ca="1"/>
@@ -9259,31 +9267,31 @@
       </c>
       <c r="G139" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H139" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
       <c r="I139" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J139" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K139" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L139" t="str">
+      <c r="L139">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M139" t="str">
         <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M139" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N139" t="str">
         <f ca="1"/>
@@ -9301,23 +9309,23 @@
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B140" s="2" t="str">
         <f ca="1"/>
-        <v>t0001</v>
+        <v>xccy0003</v>
       </c>
       <c r="C140" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D140" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>5/07/2024</v>
       </c>
       <c r="E140" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>5/07/2019</v>
       </c>
       <c r="F140" t="str">
         <f ca="1"/>
@@ -9325,31 +9333,31 @@
       </c>
       <c r="G140" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H140" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="I140" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J140" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K140" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L140" t="str">
+      <c r="L140">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M140" t="str">
         <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M140" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N140" t="str">
         <f ca="1"/>
@@ -9367,23 +9375,23 @@
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B141" s="2" t="str">
         <f ca="1"/>
-        <v>t0008</v>
+        <v>xccy0004</v>
       </c>
       <c r="C141" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D141" t="str">
         <f ca="1"/>
-        <v>29/06/2018</v>
+        <v>29/06/2029</v>
       </c>
       <c r="E141" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F141" t="str">
         <f ca="1"/>
@@ -9391,31 +9399,31 @@
       </c>
       <c r="G141" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H141" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="I141" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J141" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K141" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L141" t="str">
+      <c r="L141">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M141" t="str">
         <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M141" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N141" t="str">
         <f ca="1"/>
@@ -9433,23 +9441,23 @@
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f ca="1"/>
-        <v>FRA</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B142" s="2" t="str">
         <f ca="1"/>
-        <v>CBA0003</v>
+        <v>xccynb001</v>
       </c>
       <c r="C142" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D142" t="str">
         <f ca="1"/>
-        <v>24/08/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E142" t="str">
         <f ca="1"/>
-        <v>25/05/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F142" t="str">
         <f ca="1"/>
@@ -9457,19 +9465,19 @@
       </c>
       <c r="G142" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H142" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="I142" t="str">
         <f ca="1"/>
-        <v>InterestRate:FRA</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J142" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K142" t="str">
         <f ca="1"/>
@@ -9477,11 +9485,11 @@
       </c>
       <c r="L142" t="str">
         <f ca="1"/>
-        <v>Test</v>
-      </c>
-      <c r="M142" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
+        <v>Pricing</v>
+      </c>
+      <c r="M142">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="N142" t="str">
         <f ca="1"/>
@@ -9499,23 +9507,23 @@
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B143" s="2" t="str">
         <f ca="1"/>
-        <v>t0014</v>
+        <v>xccynb002</v>
       </c>
       <c r="C143" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D143" t="str">
         <f ca="1"/>
-        <v>29/07/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E143" t="str">
         <f ca="1"/>
-        <v>29/07/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F143" t="str">
         <f ca="1"/>
@@ -9523,19 +9531,19 @@
       </c>
       <c r="G143" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H143" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="I143" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J143" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K143" t="str">
         <f ca="1"/>
@@ -9543,11 +9551,11 @@
       </c>
       <c r="L143" t="str">
         <f ca="1"/>
-        <v>Test</v>
-      </c>
-      <c r="M143" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
+        <v>Pricing</v>
+      </c>
+      <c r="M143">
+        <f ca="1"/>
+        <v>0</v>
       </c>
       <c r="N143" t="str">
         <f ca="1"/>
@@ -9565,23 +9573,23 @@
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <f ca="1"/>
-        <v>BulletPayment</v>
+        <v>CrossCurrencySwap</v>
       </c>
       <c r="B144" s="2" t="str">
         <f ca="1"/>
-        <v>t0013</v>
+        <v>xccynb003</v>
       </c>
       <c r="C144" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D144" t="str">
         <f ca="1"/>
-        <v>24/07/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E144" t="str">
         <f ca="1"/>
-        <v>24/07/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F144" t="str">
         <f ca="1"/>
@@ -9589,19 +9597,19 @@
       </c>
       <c r="G144" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H144" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="I144" t="str">
         <f ca="1"/>
-        <v>Cash:Payment</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J144" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K144" t="str">
         <f ca="1"/>
@@ -9631,23 +9639,23 @@
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>InterestRateSwap</v>
       </c>
       <c r="B145" s="2" t="str">
         <f ca="1"/>
-        <v>t0014</v>
+        <v>xccynb004</v>
       </c>
       <c r="C145" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D145" t="str">
         <f ca="1"/>
-        <v>29/07/2018</v>
+        <v>2/07/2029</v>
       </c>
       <c r="E145" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F145" t="str">
         <f ca="1"/>
@@ -9655,19 +9663,19 @@
       </c>
       <c r="G145" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>AUD;USD</v>
       </c>
       <c r="H145" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;DiscountCurve.USD-LIBOR-SENIOR;RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="I145" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>InterestRate:CrossCurrency:FixedFloat</v>
       </c>
       <c r="J145" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K145" t="str">
         <f ca="1"/>
@@ -9687,7 +9695,7 @@
       </c>
       <c r="O145" t="str">
         <f ca="1"/>
-        <v>CBA</v>
+        <v>Party1</v>
       </c>
       <c r="P145" t="str">
         <f ca="1"/>
@@ -9697,23 +9705,23 @@
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B146" s="2" t="str">
         <f ca="1"/>
-        <v>t0013</v>
+        <v>eq_test_001</v>
       </c>
       <c r="C146" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D146" t="str">
         <f ca="1"/>
-        <v>24/07/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E146" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F146" t="str">
         <f ca="1"/>
@@ -9725,15 +9733,15 @@
       </c>
       <c r="H146" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-AAD.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I146" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J146" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K146" t="str">
         <f ca="1"/>
@@ -9741,11 +9749,11 @@
       </c>
       <c r="L146" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M146" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M146" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N146" t="str">
         <f ca="1"/>
@@ -9763,23 +9771,23 @@
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B147" s="2" t="str">
         <f ca="1"/>
-        <v>t0012</v>
+        <v>eq_test_001</v>
       </c>
       <c r="C147" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D147" t="str">
         <f ca="1"/>
-        <v>19/07/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E147" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F147" t="str">
         <f ca="1"/>
@@ -9795,11 +9803,11 @@
       </c>
       <c r="I147" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J147" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K147" t="str">
         <f ca="1"/>
@@ -9829,23 +9837,23 @@
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>EquityTransaction</v>
       </c>
       <c r="B148" s="2" t="str">
         <f ca="1"/>
-        <v>t0011</v>
+        <v>eq_test_002</v>
       </c>
       <c r="C148" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D148" t="str">
         <f ca="1"/>
-        <v>14/07/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E148" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F148" t="str">
         <f ca="1"/>
@@ -9857,15 +9865,15 @@
       </c>
       <c r="H148" t="str">
         <f ca="1"/>
-        <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>EquityCurve.AUD-QBE.AU;DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I148" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>Equity:OrdinaryShares</v>
       </c>
       <c r="J148" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K148" t="str">
         <f ca="1"/>
@@ -9873,11 +9881,11 @@
       </c>
       <c r="L148" t="str">
         <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M148" t="str">
+        <f ca="1"/>
         <v>Test</v>
-      </c>
-      <c r="M148" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
       </c>
       <c r="N148" t="str">
         <f ca="1"/>
@@ -9895,23 +9903,23 @@
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>BulletPayment</v>
       </c>
       <c r="B149" s="2" t="str">
         <f ca="1"/>
-        <v>t0007</v>
+        <v>eq_test_002</v>
       </c>
       <c r="C149" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D149" t="str">
         <f ca="1"/>
-        <v>24/06/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="E149" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F149" t="str">
         <f ca="1"/>
@@ -9927,11 +9935,11 @@
       </c>
       <c r="I149" t="str">
         <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
+        <v>Cash:Payment</v>
       </c>
       <c r="J149" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="K149" t="str">
         <f ca="1"/>
@@ -9961,23 +9969,23 @@
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f ca="1"/>
-        <v>TermDeposit</v>
+        <v>CapFloor</v>
       </c>
       <c r="B150" s="2" t="str">
         <f ca="1"/>
-        <v>t0010</v>
+        <v>cf0003</v>
       </c>
       <c r="C150" s="2" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="D150" t="str">
         <f ca="1"/>
-        <v>9/07/2018</v>
+        <v>28/06/2024</v>
       </c>
       <c r="E150" t="str">
         <f ca="1"/>
-        <v>24/02/2018</v>
+        <v>29/06/2019</v>
       </c>
       <c r="F150" t="str">
         <f ca="1"/>
@@ -9989,369 +9997,369 @@
       </c>
       <c r="H150" t="str">
         <f ca="1"/>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+      </c>
+      <c r="I150" t="str">
+        <f ca="1"/>
+        <v>InterestRate:CapFloor</v>
+      </c>
+      <c r="J150" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K150" t="str">
+        <f ca="1"/>
+        <v>SpreadSheet</v>
+      </c>
+      <c r="L150" t="str">
+        <f ca="1"/>
+        <v>Test</v>
+      </c>
+      <c r="M150" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="N150" t="str">
+        <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O150" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P150" t="str">
+        <f ca="1"/>
+        <v>Party2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" t="str">
+        <f ca="1"/>
+        <v>CapFloor</v>
+      </c>
+      <c r="B151" s="2" t="str">
+        <f ca="1"/>
+        <v>cf0001</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="D151" t="str">
+        <f ca="1"/>
+        <v>29/06/2022</v>
+      </c>
+      <c r="E151" t="str">
+        <f ca="1"/>
+        <v>29/06/2019</v>
+      </c>
+      <c r="F151" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="G151" t="str">
+        <f ca="1"/>
+        <v>AUD</v>
+      </c>
+      <c r="H151" t="str">
+        <f ca="1"/>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M;RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="I151" t="str">
+        <f ca="1"/>
+        <v>InterestRate:CapFloor</v>
+      </c>
+      <c r="J151" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K151" t="str">
+        <f ca="1"/>
+        <v>SpreadSheet</v>
+      </c>
+      <c r="L151" t="str">
+        <f ca="1"/>
+        <v>Test</v>
+      </c>
+      <c r="M151" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="N151" t="str">
+        <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O151" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P151" t="str">
+        <f ca="1"/>
+        <v>Party2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" t="str">
+        <f ca="1"/>
+        <v>CapFloor</v>
+      </c>
+      <c r="B152" s="2" t="str">
+        <f ca="1"/>
+        <v>cf0002</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="D152" t="str">
+        <f ca="1"/>
+        <v>29/06/2023</v>
+      </c>
+      <c r="E152" t="str">
+        <f ca="1"/>
+        <v>29/06/2019</v>
+      </c>
+      <c r="F152" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="G152" t="str">
+        <f ca="1"/>
+        <v>AUD</v>
+      </c>
+      <c r="H152" t="str">
+        <f ca="1"/>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-3M;RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="I152" t="str">
+        <f ca="1"/>
+        <v>InterestRate:CapFloor</v>
+      </c>
+      <c r="J152" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K152" t="str">
+        <f ca="1"/>
+        <v>SpreadSheet</v>
+      </c>
+      <c r="L152" t="str">
+        <f ca="1"/>
+        <v>Test</v>
+      </c>
+      <c r="M152" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="N152" t="str">
+        <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O152" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P152" t="str">
+        <f ca="1"/>
+        <v>Party2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153" t="str">
+        <f ca="1"/>
+        <v>CapFloor</v>
+      </c>
+      <c r="B153" s="2" t="str">
+        <f ca="1"/>
+        <v>cf0004</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="D153" t="str">
+        <f ca="1"/>
+        <v>29/06/2029</v>
+      </c>
+      <c r="E153" t="str">
+        <f ca="1"/>
+        <v>29/06/2019</v>
+      </c>
+      <c r="F153" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="G153" t="str">
+        <f ca="1"/>
+        <v>AUD</v>
+      </c>
+      <c r="H153" t="str">
+        <f ca="1"/>
+        <v>DiscountCurve.AUD-LIBOR-SENIOR;RateCurve.AUD-BBR-BBSW-6M;RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+      </c>
+      <c r="I153" t="str">
+        <f ca="1"/>
+        <v>InterestRate:CapFloor</v>
+      </c>
+      <c r="J153" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K153" t="str">
+        <f ca="1"/>
+        <v>SpreadSheet</v>
+      </c>
+      <c r="L153" t="str">
+        <f ca="1"/>
+        <v>Test</v>
+      </c>
+      <c r="M153" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="N153" t="str">
+        <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O153" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P153" t="str">
+        <f ca="1"/>
+        <v>Party2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f ca="1"/>
+        <v>PropertyTransaction</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f ca="1"/>
+        <v>test_001</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="D154" t="str">
+        <f ca="1"/>
+        <v>1/01/0001</v>
+      </c>
+      <c r="E154" t="str">
+        <f ca="1"/>
+        <v>1/07/2019</v>
+      </c>
+      <c r="F154" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="G154" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="H154" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="I154" t="str">
+        <f ca="1"/>
+        <v>Property:Residential</v>
+      </c>
+      <c r="J154" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K154" t="str">
+        <f ca="1"/>
+        <v>SpreadSheet</v>
+      </c>
+      <c r="L154" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="M154" t="str">
+        <f ca="1"/>
+        <v>Test</v>
+      </c>
+      <c r="N154" t="str">
+        <f ca="1"/>
+        <v>Party1</v>
+      </c>
+      <c r="O154" t="str">
+        <f ca="1"/>
+        <v>CBA</v>
+      </c>
+      <c r="P154" t="str">
+        <f ca="1"/>
+        <v>Party2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f ca="1"/>
+        <v>BulletPayment</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f ca="1"/>
+        <v>test_001</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="D155" t="str">
+        <f ca="1"/>
+        <v>1/07/2019</v>
+      </c>
+      <c r="E155" t="str">
+        <f ca="1"/>
+        <v>1/07/2019</v>
+      </c>
+      <c r="F155" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="G155" t="str">
+        <f ca="1"/>
+        <v>AUD</v>
+      </c>
+      <c r="H155" t="str">
+        <f ca="1"/>
         <v>DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
-      <c r="I150" t="str">
-        <f ca="1"/>
-        <v>InterestRate:TermDeposit</v>
-      </c>
-      <c r="J150" t="str">
-        <f ca="1"/>
-        <v>24/02/2018</v>
-      </c>
-      <c r="K150" t="str">
+      <c r="I155" t="str">
+        <f ca="1"/>
+        <v>Cash:Payment</v>
+      </c>
+      <c r="J155" t="str">
+        <f ca="1"/>
+        <v>28/06/2019</v>
+      </c>
+      <c r="K155" t="str">
         <f ca="1"/>
         <v>SpreadSheet</v>
       </c>
-      <c r="L150" t="str">
+      <c r="L155" t="str">
         <f ca="1"/>
         <v>Test</v>
       </c>
-      <c r="M150" t="str">
-        <f ca="1"/>
-        <v>Pricing</v>
-      </c>
-      <c r="N150" t="str">
+      <c r="M155" t="str">
+        <f ca="1"/>
+        <v>Pricing</v>
+      </c>
+      <c r="N155" t="str">
         <f ca="1"/>
         <v>Party1</v>
       </c>
-      <c r="O150" t="str">
+      <c r="O155" t="str">
         <f ca="1"/>
         <v>CBA</v>
       </c>
-      <c r="P150" t="str">
+      <c r="P155" t="str">
         <f ca="1"/>
         <v>Party2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B151" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C151" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P151" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B152" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C152" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P152" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B153" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C153" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P153" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B154" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C154" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P154" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B155" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C155" s="2" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P155" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
